--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C6B23-7C5B-42B3-ADD1-AD52CC07EB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F14FF42-69F6-4E85-946F-AAA0963A935A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
+    <sheet name="Pendientes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -105,13 +100,55 @@
     <t>HORA</t>
   </si>
   <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
     <t>JUAN FLORES</t>
   </si>
   <si>
     <t>ANALISIS: UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar empleados de la misma empresa una vez que se logueen </t>
+  </si>
+  <si>
+    <r>
+      <t>revisar codigo empresa, para que se registre uno solo(crear condicion)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+  </si>
+  <si>
+    <t>llenar tu informe.</t>
+  </si>
+  <si>
+    <t>Revisar contrato para que salga el boton modificar una vez que se registra un contrato</t>
+  </si>
+  <si>
+    <t>tabla empresa</t>
+  </si>
+  <si>
+    <r>
+      <t>revisar formulario Sucursal(empresa) no modifica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pendiente</t>
+    </r>
+  </si>
+  <si>
+    <t>Verificando Errores, corregir Sucursal(no actualiza)</t>
   </si>
 </sst>
 </file>
@@ -119,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +194,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -189,7 +234,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -206,6 +251,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9F99B-5DD8-4619-A25C-4AB7EC88545F}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +626,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -685,7 +731,9 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -731,7 +779,7 @@
     </row>
     <row r="16" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -740,7 +788,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -760,4 +808,51 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E3E90-1FAF-4E03-9CF4-0E6F2FB5F484}">
+  <dimension ref="A3:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F14FF42-69F6-4E85-946F-AAA0963A935A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460CBE37-79E8-42D8-8464-6CCC2F3B18A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -97,9 +97,6 @@
     <t>CARLOS MEZA</t>
   </si>
   <si>
-    <t>HORA</t>
-  </si>
-  <si>
     <t>JUAN FLORES</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     </r>
   </si>
   <si>
-    <t>llenar tu informe.</t>
-  </si>
-  <si>
     <t>Revisar contrato para que salga el boton modificar una vez que se registra un contrato</t>
   </si>
   <si>
@@ -149,6 +143,15 @@
   </si>
   <si>
     <t>Verificando Errores, corregir Sucursal(no actualiza)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTION EMPLEADO(registrar, actualizar mostrar y eliminar) mediante procedimientos alamacenados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTION DE BANCO(registrar, actualizar mostrar y eliminar) mediante procedimientos alamacenados </t>
+  </si>
+  <si>
+    <t>Revisando lista de empleados por empresa una vez que se logueen</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -232,7 +235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +254,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9F99B-5DD8-4619-A25C-4AB7EC88545F}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +634,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -645,81 +653,81 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5">
         <v>44046</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>44047</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>44048</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>44049</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>44050</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>44051</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>44052</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -732,43 +740,43 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5">
         <v>44046</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>44047</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>44048</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>44049</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>44050</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>44051</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>44052</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -777,18 +785,22 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
+      <c r="I16" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -814,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E3E90-1FAF-4E03-9CF4-0E6F2FB5F484}">
   <dimension ref="A3:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,31 +837,31 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460CBE37-79E8-42D8-8464-6CCC2F3B18A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C91D36E-FCA2-42AA-9ECC-41591E17E472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Revisando lista de empleados por empresa una vez que se logueen</t>
+  </si>
+  <si>
+    <t>Modificar Diseño de empleado,  banco y tipo de contrato</t>
   </si>
 </sst>
 </file>
@@ -613,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9F99B-5DD8-4619-A25C-4AB7EC88545F}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,9 +796,11 @@
         <v>28</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -826,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E3E90-1FAF-4E03-9CF4-0E6F2FB5F484}">
   <dimension ref="A3:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C91D36E-FCA2-42AA-9ECC-41591E17E472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D32CF0-5A5C-4106-9E25-54AAF17579D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -106,25 +106,43 @@
     <t xml:space="preserve">Listar empleados de la misma empresa una vez que se logueen </t>
   </si>
   <si>
-    <r>
-      <t>revisar codigo empresa, para que se registre uno solo(crear condicion)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pendiente</t>
-    </r>
-  </si>
-  <si>
     <t>Revisar contrato para que salga el boton modificar una vez que se registra un contrato</t>
   </si>
   <si>
-    <t>tabla empresa</t>
+    <t xml:space="preserve">GESTION EMPLEADO(registrar, actualizar mostrar y eliminar) mediante procedimientos alamacenados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTION DE BANCO(registrar, actualizar mostrar y eliminar) mediante procedimientos alamacenados </t>
+  </si>
+  <si>
+    <t>Revisando lista de empleados por empresa una vez que se logueen</t>
+  </si>
+  <si>
+    <t>Modificar Diseño de empleado,  banco y tipo de contrato</t>
+  </si>
+  <si>
+    <t>Verificando Errores, corregir Sucursal(no actualiza), modificar proc sql de empleado y sincronizar datos con empresa y empleado individual ok</t>
+  </si>
+  <si>
+    <t>Modificacion del Diseño de empresa y Sucursal(para registrar empleado por empresa).</t>
+  </si>
+  <si>
+    <t>9 pm a 2 am</t>
+  </si>
+  <si>
+    <t>OBSERVACION</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>CONCLUIDO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>revisar codigo empresa, para que se registre uno solo(crear condicion)</t>
   </si>
   <si>
     <r>
@@ -138,23 +156,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> pendiente</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>Verificando Errores, corregir Sucursal(no actualiza)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTION EMPLEADO(registrar, actualizar mostrar y eliminar) mediante procedimientos alamacenados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTION DE BANCO(registrar, actualizar mostrar y eliminar) mediante procedimientos alamacenados </t>
-  </si>
-  <si>
-    <t>Revisando lista de empleados por empresa una vez que se logueen</t>
-  </si>
-  <si>
-    <t>Modificar Diseño de empleado,  banco y tipo de contrato</t>
+    <t>Crear formulario Principal(contenedor de formularios)</t>
+  </si>
+  <si>
+    <t>Crear base de datos (tabla periodo)</t>
+  </si>
+  <si>
+    <t>Crear procedimiento sql para buscar empleado</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +220,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -263,11 +314,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -300,7 +394,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B75897D-100D-4D5D-A86B-35010016B1AC}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B75897D-100D-4D5D-A86B-35010016B1AC}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A10:I16" xr:uid="{6365733F-180E-4727-A920-FF2F299610E8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5F4B84F2-079F-4219-8B8A-49571F8DD414}" name="OTRO"/>
@@ -312,6 +406,17 @@
     <tableColumn id="7" xr3:uid="{F0FFB24A-3EC5-4950-94CE-AD109E600912}" name="SÁBADO"/>
     <tableColumn id="8" xr3:uid="{99DDF987-B514-45B9-BD41-25FA55BB12B7}" name="DOMINGO"/>
     <tableColumn id="9" xr3:uid="{B5C2F3B1-9610-4987-8C53-CCEFF66905A8}" name="DEVELOPER"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04AD6298-28CB-428C-BC07-9A916C01371B}" name="Tabla1" displayName="Tabla1" ref="A2:C9" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E9815E11-92DB-4879-9FCB-B1A5500BE9A2}" name="OBSERVACION"/>
+    <tableColumn id="2" xr3:uid="{902F1039-067B-4EC4-8EC7-F6CB2D6E8B95}" name="PENDIENTE" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7FDB06FA-8703-4553-A95A-D6CC27A41B6C}" name="CONCLUIDO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9F99B-5DD8-4619-A25C-4AB7EC88545F}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +730,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -727,12 +832,14 @@
         <v>16</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,9 +850,11 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="10" t="s">
@@ -790,16 +899,16 @@
     </row>
     <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -820,7 +929,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -829,47 +938,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E3E90-1FAF-4E03-9CF4-0E6F2FB5F484}">
-  <dimension ref="A3:A12"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="19"/>
+    <col min="3" max="3" width="13.5703125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D32CF0-5A5C-4106-9E25-54AAF17579D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B885E79A-D069-4E27-BBE4-656674188D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
-    <sheet name="Pendientes" sheetId="2" r:id="rId2"/>
+    <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORMES!$A$1:$I$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -168,6 +171,12 @@
   <si>
     <t>Crear procedimiento sql para buscar empleado</t>
   </si>
+  <si>
+    <t>planilla crear tabla</t>
+  </si>
+  <si>
+    <t>CALCULO PLANILLA</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +220,6 @@
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -280,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -307,24 +308,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -340,7 +337,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -355,7 +352,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -393,6 +390,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>51007</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>140534</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10188328" y="39414"/>
+          <a:ext cx="7328527" cy="4369299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B75897D-100D-4D5D-A86B-35010016B1AC}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A10:I16" xr:uid="{6365733F-180E-4727-A920-FF2F299610E8}"/>
@@ -412,11 +464,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04AD6298-28CB-428C-BC07-9A916C01371B}" name="Tabla1" displayName="Tabla1" ref="A2:C9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04AD6298-28CB-428C-BC07-9A916C01371B}" name="Tabla1" displayName="Tabla1" ref="A2:C11" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E9815E11-92DB-4879-9FCB-B1A5500BE9A2}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{902F1039-067B-4EC4-8EC7-F6CB2D6E8B95}" name="PENDIENTE" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7FDB06FA-8703-4553-A95A-D6CC27A41B6C}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{902F1039-067B-4EC4-8EC7-F6CB2D6E8B95}" name="PENDIENTE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7FDB06FA-8703-4553-A95A-D6CC27A41B6C}" name="CONCLUIDO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9F99B-5DD8-4619-A25C-4AB7EC88545F}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +785,7 @@
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,16 +957,16 @@
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -930,8 +983,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -941,24 +995,24 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="19"/>
-    <col min="3" max="3" width="13.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="17"/>
+    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -966,7 +1020,7 @@
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -974,7 +1028,7 @@
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -982,7 +1036,7 @@
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -990,7 +1044,7 @@
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -998,7 +1052,7 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1006,7 +1060,7 @@
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1014,12 +1068,25 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B885E79A-D069-4E27-BBE4-656674188D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{FCCD8F72-B774-436A-AA0E-7E24570ECBB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INFORMES!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -177,15 +176,21 @@
   <si>
     <t>CALCULO PLANILLA</t>
   </si>
+  <si>
+    <t xml:space="preserve">Mostrar empleado en una list&lt;&gt; </t>
+  </si>
+  <si>
+    <t>Filtrar empleados por DNI y nombre (por medio de un radiobutton)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +265,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -323,6 +342,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,7 +367,6 @@
         <vertAlign val="baseline"/>
         <color theme="4" tint="-0.249977111117893"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -354,7 +381,6 @@
         <vertAlign val="baseline"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -373,7 +399,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Century Gothic"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -410,7 +435,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -446,29 +471,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B75897D-100D-4D5D-A86B-35010016B1AC}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A10:I16" xr:uid="{6365733F-180E-4727-A920-FF2F299610E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A10:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5F4B84F2-079F-4219-8B8A-49571F8DD414}" name="OTRO"/>
-    <tableColumn id="2" xr3:uid="{89806E8F-1952-4E8A-8217-994A57F31943}" name="LUNES"/>
-    <tableColumn id="3" xr3:uid="{3A52FA72-28AA-47BC-A808-F379DA940F0E}" name="MARTES"/>
-    <tableColumn id="4" xr3:uid="{3CB59296-ECAD-40A5-95B8-2049FD696264}" name="MIÉRCOLES"/>
-    <tableColumn id="5" xr3:uid="{ECF94A98-C29D-4431-AA6A-11E16A46E3E6}" name="JUEVES"/>
-    <tableColumn id="6" xr3:uid="{76A9FFEC-1806-40E1-A79C-26160D2284F4}" name="VIERNES"/>
-    <tableColumn id="7" xr3:uid="{F0FFB24A-3EC5-4950-94CE-AD109E600912}" name="SÁBADO"/>
-    <tableColumn id="8" xr3:uid="{99DDF987-B514-45B9-BD41-25FA55BB12B7}" name="DOMINGO"/>
-    <tableColumn id="9" xr3:uid="{B5C2F3B1-9610-4987-8C53-CCEFF66905A8}" name="DEVELOPER"/>
+    <tableColumn id="1" name="OTRO"/>
+    <tableColumn id="2" name="LUNES"/>
+    <tableColumn id="3" name="MARTES"/>
+    <tableColumn id="4" name="MIÉRCOLES"/>
+    <tableColumn id="5" name="JUEVES"/>
+    <tableColumn id="6" name="VIERNES"/>
+    <tableColumn id="7" name="SÁBADO"/>
+    <tableColumn id="8" name="DOMINGO"/>
+    <tableColumn id="9" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04AD6298-28CB-428C-BC07-9A916C01371B}" name="Tabla1" displayName="Tabla1" ref="A2:C11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E9815E11-92DB-4879-9FCB-B1A5500BE9A2}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{902F1039-067B-4EC4-8EC7-F6CB2D6E8B95}" name="PENDIENTE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7FDB06FA-8703-4553-A95A-D6CC27A41B6C}" name="CONCLUIDO" dataDxfId="0"/>
+    <tableColumn id="1" name="OBSERVACION"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="1"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,11 +795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9F99B-5DD8-4619-A25C-4AB7EC88545F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +988,9 @@
       <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="10" t="s">
@@ -991,11 +1018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E3E90-1FAF-4E03-9CF4-0E6F2FB5F484}">
-  <dimension ref="A2:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1115,15 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838C4753-A7FB-4858-8120-48CFC657EE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -435,7 +436,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -471,29 +472,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A10:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A10:I16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="OTRO"/>
-    <tableColumn id="2" name="LUNES"/>
-    <tableColumn id="3" name="MARTES"/>
-    <tableColumn id="4" name="MIÉRCOLES"/>
-    <tableColumn id="5" name="JUEVES"/>
-    <tableColumn id="6" name="VIERNES"/>
-    <tableColumn id="7" name="SÁBADO"/>
-    <tableColumn id="8" name="DOMINGO"/>
-    <tableColumn id="9" name="DEVELOPER"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OTRO"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LUNES"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MARTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIÉRCOLES"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JUEVES"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VIERNES"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SÁBADO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DOMINGO"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:C12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="OBSERVACION"/>
-    <tableColumn id="2" name="PENDIENTE" dataDxfId="1"/>
-    <tableColumn id="3" name="CONCLUIDO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -795,11 +796,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +969,18 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -1018,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1104,8 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838C4753-A7FB-4858-8120-48CFC657EE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -163,18 +162,12 @@
     </r>
   </si>
   <si>
-    <t>Crear formulario Principal(contenedor de formularios)</t>
-  </si>
-  <si>
     <t>Crear base de datos (tabla periodo)</t>
   </si>
   <si>
     <t>Crear procedimiento sql para buscar empleado</t>
   </si>
   <si>
-    <t>planilla crear tabla</t>
-  </si>
-  <si>
     <t>CALCULO PLANILLA</t>
   </si>
   <si>
@@ -182,16 +175,34 @@
   </si>
   <si>
     <t>Filtrar empleados por DNI y nombre (por medio de un radiobutton)</t>
+  </si>
+  <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Crear formulario Principal(contenedor de formularios) y accesos a los formularios hijos y sub hijos</t>
+  </si>
+  <si>
+    <t>Juan/carlos</t>
+  </si>
+  <si>
+    <t>Crear tabla planilla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +284,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -345,9 +349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,7 +437,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -472,29 +473,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A10:I16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A10:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OTRO"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LUNES"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MARTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIÉRCOLES"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JUEVES"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VIERNES"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SÁBADO"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DOMINGO"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DEVELOPER"/>
+    <tableColumn id="1" name="OTRO"/>
+    <tableColumn id="2" name="LUNES"/>
+    <tableColumn id="3" name="MARTES"/>
+    <tableColumn id="4" name="MIÉRCOLES"/>
+    <tableColumn id="5" name="JUEVES"/>
+    <tableColumn id="6" name="VIERNES"/>
+    <tableColumn id="7" name="SÁBADO"/>
+    <tableColumn id="8" name="DOMINGO"/>
+    <tableColumn id="9" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:C12" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D12" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="OBSERVACION"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="1"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="0"/>
+    <tableColumn id="4" name="ENCARGADO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -796,11 +798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,8 +999,8 @@
       <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>42</v>
+      <c r="F16" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1027,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1043,7 @@
     <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
@@ -1051,16 +1053,22 @@
       <c r="C2" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1068,15 +1076,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1084,55 +1095,60 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="18"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1A8FC-7CC1-4634-8AD9-9FB0AB4D671A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -168,12 +169,6 @@
     <t>Crear procedimiento sql para buscar empleado</t>
   </si>
   <si>
-    <t>CALCULO PLANILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar empleado en una list&lt;&gt; </t>
-  </si>
-  <si>
     <t>Filtrar empleados por DNI y nombre (por medio de un radiobutton)</t>
   </si>
   <si>
@@ -192,17 +187,32 @@
     <t>Juan/carlos</t>
   </si>
   <si>
-    <t>Crear tabla planilla</t>
+    <t>Calculo planilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tabla planilla/analisis en DB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar empleado en una List&lt;&gt; </t>
+  </si>
+  <si>
+    <t>Crear integridad referencial en las tablas señaladas(previo analisis)</t>
+  </si>
+  <si>
+    <t>Consultar datos de empleado en T registro(sunat) ver codigo de campos</t>
+  </si>
+  <si>
+    <t>Carlos/Juan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +294,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -353,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +457,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,30 +493,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A10:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A10:I16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="OTRO"/>
-    <tableColumn id="2" name="LUNES"/>
-    <tableColumn id="3" name="MARTES"/>
-    <tableColumn id="4" name="MIÉRCOLES"/>
-    <tableColumn id="5" name="JUEVES"/>
-    <tableColumn id="6" name="VIERNES"/>
-    <tableColumn id="7" name="SÁBADO"/>
-    <tableColumn id="8" name="DOMINGO"/>
-    <tableColumn id="9" name="DEVELOPER"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OTRO"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LUNES"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MARTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIÉRCOLES"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JUEVES"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VIERNES"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SÁBADO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DOMINGO"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D14" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="OBSERVACION"/>
-    <tableColumn id="2" name="PENDIENTE" dataDxfId="1"/>
-    <tableColumn id="3" name="CONCLUIDO" dataDxfId="0"/>
-    <tableColumn id="4" name="ENCARGADO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -798,11 +818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1029,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1065,7 +1085,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1084,7 +1104,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,13 +1117,13 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1134,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1148,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>33</v>
@@ -1136,7 +1156,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>33</v>
@@ -1144,10 +1164,31 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1A8FC-7CC1-4634-8AD9-9FB0AB4D671A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707281D1-339F-44A1-8D2A-EC50D6AAB975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INFORMES" sheetId="1" r:id="rId1"/>
+    <sheet name="INFORME" sheetId="4" r:id="rId1"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORMES!$A$1:$I$16</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -70,21 +68,6 @@
     <t>GESTION CONTRATO(registro, y sincronizacion con tabla empleado)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">LOGIN ACCESO(sincronizar con la base de datos) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pendiente</t>
-    </r>
-  </si>
-  <si>
     <t>Modificar Diseño de formulario Login, hacer pruebas</t>
   </si>
   <si>
@@ -92,9 +75,6 @@
   </si>
   <si>
     <t>9AM A 4PM</t>
-  </si>
-  <si>
-    <t>OTRO</t>
   </si>
   <si>
     <t>CARLOS MEZA</t>
@@ -204,15 +184,24 @@
   <si>
     <t>Carlos/Juan</t>
   </si>
+  <si>
+    <t>LOGIN ACCESO(sincronizar con la base de datos)</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>Modificar procedimiento almacenado para preparar scrip en sql transact(para empresa y sucursal, codigo unico y no duplicado)</t>
+  </si>
+  <si>
+    <t>Modificar procedimiento SP_REMOVE_SUCURSAL(para eliminar empresa y sucursal)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,19 +223,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -301,6 +277,27 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,63 +319,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -409,20 +401,18 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,23 +431,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>51007</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>39414</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>140534</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470527</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAFFB57-2838-4E6A-8D48-54AD70C84A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -479,7 +469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10188328" y="39414"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="7328527" cy="4369299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -493,30 +483,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A10:I16" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A10:I16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OTRO"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LUNES"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MARTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIÉRCOLES"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JUEVES"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VIERNES"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SÁBADO"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DOMINGO"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DEVELOPER"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209129E8-390A-49F0-9FAE-2E6BC4E8FC93}" name="Tabla3" displayName="Tabla3" ref="A10:H20" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H20" xr:uid="{CE052CFC-4D65-4396-BD5D-008CF3C6222D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FD0E33B8-7E55-42BD-A8FA-A3550E75FA05}" name="LUNES"/>
+    <tableColumn id="2" xr3:uid="{245FBD3C-8A65-45EE-BFC1-272B48328239}" name="MARTES"/>
+    <tableColumn id="3" xr3:uid="{4AC5D382-68C9-4370-AB19-A96163E5AEBB}" name="MIÉRCOLES"/>
+    <tableColumn id="4" xr3:uid="{B9464A7E-8A81-4C52-98D4-81AFA8F7552F}" name="JUEVES"/>
+    <tableColumn id="5" xr3:uid="{7B91C5A7-30AD-4BC4-A15D-C46C25EA4E31}" name="VIERNES"/>
+    <tableColumn id="6" xr3:uid="{D2889069-FC58-449D-941C-EA0F318DD7D5}" name="SÁBADO"/>
+    <tableColumn id="7" xr3:uid="{B3EF9136-3592-4711-8444-A47B8776D12B}" name="DOMINGO"/>
+    <tableColumn id="8" xr3:uid="{4E9FB1E1-0624-4FE8-AA11-0070A91F2691}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D15" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -818,377 +807,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921E90-C2FD-43C6-ACC7-A767964A2064}">
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44046</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44047</v>
+      </c>
+      <c r="C11" s="12">
+        <v>44048</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44049</v>
+      </c>
+      <c r="E11" s="12">
+        <v>44050</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44051</v>
+      </c>
+      <c r="G11" s="12">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5">
-        <v>44046</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44047</v>
-      </c>
-      <c r="D11" s="5">
-        <v>44048</v>
-      </c>
-      <c r="E11" s="5">
-        <v>44049</v>
-      </c>
-      <c r="F11" s="5">
-        <v>44050</v>
-      </c>
-      <c r="G11" s="5">
-        <v>44051</v>
-      </c>
-      <c r="H11" s="5">
-        <v>44052</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>44046</v>
       </c>
-      <c r="C14" s="5">
+      <c r="B14" s="12">
         <v>44047</v>
       </c>
-      <c r="D14" s="5">
+      <c r="C14" s="12">
         <v>44048</v>
       </c>
-      <c r="E14" s="5">
+      <c r="D14" s="12">
         <v>44049</v>
       </c>
-      <c r="F14" s="5">
+      <c r="E14" s="12">
         <v>44050</v>
       </c>
-      <c r="G14" s="5">
+      <c r="F14" s="12">
         <v>44051</v>
       </c>
-      <c r="H14" s="5">
+      <c r="G14" s="12">
         <v>44052</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44055</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44056</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44057</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44058</v>
+      </c>
+      <c r="G17" s="12">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44055</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44056</v>
+      </c>
+      <c r="E20" s="12">
+        <v>44057</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44058</v>
+      </c>
+      <c r="G20" s="12">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="17"/>
-    <col min="3" max="3" width="13.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" t="s">
-        <v>49</v>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1198,4 +1237,17 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD60AB29-B554-4A6C-AFCE-7CFA1AAF150A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707281D1-339F-44A1-8D2A-EC50D6AAB975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE45E5B-97BF-49A8-B54C-6B19F42BC794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -195,6 +195,39 @@
   </si>
   <si>
     <t>Modificar procedimiento SP_REMOVE_SUCURSAL(para eliminar empresa y sucursal)</t>
+  </si>
+  <si>
+    <t>gratificacion manto</t>
+  </si>
+  <si>
+    <t>cts</t>
+  </si>
+  <si>
+    <t>cts manto</t>
+  </si>
+  <si>
+    <t>planilla</t>
+  </si>
+  <si>
+    <t>periodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear tabla agregar meses </t>
+  </si>
+  <si>
+    <t>tabla abstracta</t>
+  </si>
+  <si>
+    <t>Crear tabla gratificacion</t>
+  </si>
+  <si>
+    <t>JUAN FLORES/ANDRE ACEDO</t>
+  </si>
+  <si>
+    <t>Crear tablas para realizar los respectivos calculos de la planilla  y realizar las conexiones correspondientes con la base de datos del sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño y creacion del formulario principal al momento que el usuario inicie sesion con su empresa. </t>
   </si>
 </sst>
 </file>
@@ -483,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209129E8-390A-49F0-9FAE-2E6BC4E8FC93}" name="Tabla3" displayName="Tabla3" ref="A10:H20" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H20" xr:uid="{CE052CFC-4D65-4396-BD5D-008CF3C6222D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209129E8-390A-49F0-9FAE-2E6BC4E8FC93}" name="Tabla3" displayName="Tabla3" ref="A10:H22" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H22" xr:uid="{CE052CFC-4D65-4396-BD5D-008CF3C6222D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FD0E33B8-7E55-42BD-A8FA-A3550E75FA05}" name="LUNES"/>
     <tableColumn id="2" xr3:uid="{245FBD3C-8A65-45EE-BFC1-272B48328239}" name="MARTES"/>
@@ -500,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D23" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
@@ -808,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921E90-C2FD-43C6-ACC7-A767964A2064}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,10 +1091,25 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1070,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,6 +1277,62 @@
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707281D1-339F-44A1-8D2A-EC50D6AAB975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097BB3F-B595-4BB7-924C-C3C520C187E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -195,6 +195,27 @@
   </si>
   <si>
     <t>Modificar procedimiento SP_REMOVE_SUCURSAL(para eliminar empresa y sucursal)</t>
+  </si>
+  <si>
+    <t>Regimen pensionario con tipo de regimen (crear tabla)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analisis tabla Regimen pensionario, Modificar Registro Empleado y contrato </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+  </si>
+  <si>
+    <t>Crear Tabla afp comisiones</t>
   </si>
 </sst>
 </file>
@@ -319,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -362,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D17" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
@@ -810,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921E90-C2FD-43C6-ACC7-A767964A2064}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1055,10 @@
       <c r="D19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1070,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1257,30 @@
         <v>38</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
@@ -1243,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD60AB29-B554-4A6C-AFCE-7CFA1AAF150A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097BB3F-B595-4BB7-924C-C3C520C187E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -217,11 +219,20 @@
   <si>
     <t>Crear Tabla afp comisiones</t>
   </si>
+  <si>
+    <t>Crear tabla para realizar los calculos correspondientes y crear sus respectivas relaciones en el sistema de planilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño del formulario principal y acoplamiento de los formularios hijos </t>
+  </si>
+  <si>
+    <t>JUAN FLORES/ANDRE ACEDO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -386,12 +397,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -422,21 +453,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +487,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -507,29 +523,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209129E8-390A-49F0-9FAE-2E6BC4E8FC93}" name="Tabla3" displayName="Tabla3" ref="A10:H20" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H20" xr:uid="{CE052CFC-4D65-4396-BD5D-008CF3C6222D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A10:H21"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FD0E33B8-7E55-42BD-A8FA-A3550E75FA05}" name="LUNES"/>
-    <tableColumn id="2" xr3:uid="{245FBD3C-8A65-45EE-BFC1-272B48328239}" name="MARTES"/>
-    <tableColumn id="3" xr3:uid="{4AC5D382-68C9-4370-AB19-A96163E5AEBB}" name="MIÉRCOLES"/>
-    <tableColumn id="4" xr3:uid="{B9464A7E-8A81-4C52-98D4-81AFA8F7552F}" name="JUEVES"/>
-    <tableColumn id="5" xr3:uid="{7B91C5A7-30AD-4BC4-A15D-C46C25EA4E31}" name="VIERNES"/>
-    <tableColumn id="6" xr3:uid="{D2889069-FC58-449D-941C-EA0F318DD7D5}" name="SÁBADO"/>
-    <tableColumn id="7" xr3:uid="{B3EF9136-3592-4711-8444-A47B8776D12B}" name="DOMINGO"/>
-    <tableColumn id="8" xr3:uid="{4E9FB1E1-0624-4FE8-AA11-0070A91F2691}" name="DEVELOPER"/>
+    <tableColumn id="1" name="LUNES"/>
+    <tableColumn id="2" name="MARTES"/>
+    <tableColumn id="3" name="MIÉRCOLES"/>
+    <tableColumn id="4" name="JUEVES"/>
+    <tableColumn id="5" name="VIERNES"/>
+    <tableColumn id="6" name="SÁBADO"/>
+    <tableColumn id="7" name="DOMINGO"/>
+    <tableColumn id="8" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D17" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="1" name="OBSERVACION"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="3"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="2"/>
+    <tableColumn id="4" name="ENCARGADO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,11 +847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921E90-C2FD-43C6-ACC7-A767964A2064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44053</v>
       </c>
@@ -1085,7 +1101,17 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="D21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -1096,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
@@ -1291,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD60AB29-B554-4A6C-AFCE-7CFA1AAF150A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097BB3F-B595-4BB7-924C-C3C520C187E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1811F-E07D-4D90-A08C-0AE28523514A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>Crear Tabla afp comisiones</t>
+  </si>
+  <si>
+    <t>codigo DNI en empleado</t>
+  </si>
+  <si>
+    <t>PTP 9 DIGITOS</t>
+  </si>
+  <si>
+    <t>Tabla empresa (tabla lista empresa y vista usuario)</t>
   </si>
 </sst>
 </file>
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D19" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
@@ -1058,6 +1067,9 @@
       <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
@@ -1097,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1121,7 @@
     <col min="2" max="2" width="11.42578125" style="7"/>
     <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,6 +1293,25 @@
       <c r="D17" s="15" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -410,20 +410,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -453,6 +439,20 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,7 +487,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H21" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A10:H21"/>
   <tableColumns count="8">
     <tableColumn id="1" name="LUNES"/>
@@ -543,9 +543,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D17" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="OBSERVACION"/>
-    <tableColumn id="2" name="PENDIENTE" dataDxfId="3"/>
-    <tableColumn id="3" name="CONCLUIDO" dataDxfId="2"/>
-    <tableColumn id="4" name="ENCARGADO" dataDxfId="1"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1811F-E07D-4D90-A08C-0AE28523514A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -218,19 +220,19 @@
     <t>Crear Tabla afp comisiones</t>
   </si>
   <si>
-    <t>codigo DNI en empleado</t>
-  </si>
-  <si>
-    <t>PTP 9 DIGITOS</t>
-  </si>
-  <si>
-    <t>Tabla empresa (tabla lista empresa y vista usuario)</t>
+    <t>Crear tabla para realizar los calculos correspondientes y crear sus respectivas relaciones en el sistema de planilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño del formulario principal y acoplamiento de los formularios hijos </t>
+  </si>
+  <si>
+    <t>JUAN FLORES/ANDRE ACEDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -395,6 +397,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +450,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -480,7 +487,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,29 +523,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209129E8-390A-49F0-9FAE-2E6BC4E8FC93}" name="Tabla3" displayName="Tabla3" ref="A10:H20" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H20" xr:uid="{CE052CFC-4D65-4396-BD5D-008CF3C6222D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H21" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H21"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FD0E33B8-7E55-42BD-A8FA-A3550E75FA05}" name="LUNES"/>
-    <tableColumn id="2" xr3:uid="{245FBD3C-8A65-45EE-BFC1-272B48328239}" name="MARTES"/>
-    <tableColumn id="3" xr3:uid="{4AC5D382-68C9-4370-AB19-A96163E5AEBB}" name="MIÉRCOLES"/>
-    <tableColumn id="4" xr3:uid="{B9464A7E-8A81-4C52-98D4-81AFA8F7552F}" name="JUEVES"/>
-    <tableColumn id="5" xr3:uid="{7B91C5A7-30AD-4BC4-A15D-C46C25EA4E31}" name="VIERNES"/>
-    <tableColumn id="6" xr3:uid="{D2889069-FC58-449D-941C-EA0F318DD7D5}" name="SÁBADO"/>
-    <tableColumn id="7" xr3:uid="{B3EF9136-3592-4711-8444-A47B8776D12B}" name="DOMINGO"/>
-    <tableColumn id="8" xr3:uid="{4E9FB1E1-0624-4FE8-AA11-0070A91F2691}" name="DEVELOPER"/>
+    <tableColumn id="1" name="LUNES"/>
+    <tableColumn id="2" name="MARTES"/>
+    <tableColumn id="3" name="MIÉRCOLES"/>
+    <tableColumn id="4" name="JUEVES"/>
+    <tableColumn id="5" name="VIERNES"/>
+    <tableColumn id="6" name="SÁBADO"/>
+    <tableColumn id="7" name="DOMINGO"/>
+    <tableColumn id="8" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D17" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="1" name="OBSERVACION"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,11 +847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921E90-C2FD-43C6-ACC7-A767964A2064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,14 +1074,11 @@
       <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44053</v>
       </c>
@@ -1097,7 +1101,17 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="D21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -1108,11 +1122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1135,6 @@
     <col min="2" max="2" width="11.42578125" style="7"/>
     <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="15"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,25 +1306,6 @@
       <c r="D17" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD60AB29-B554-4A6C-AFCE-7CFA1AAF150A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1811F-E07D-4D90-A08C-0AE28523514A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF25D39-9B73-418A-A683-956543AB09A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF25D39-9B73-418A-A683-956543AB09A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$22</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -226,11 +228,20 @@
   <si>
     <t>Tabla empresa (tabla lista empresa y vista usuario)</t>
   </si>
+  <si>
+    <t>Crear las tablas (planilla,cts,gratificacion) para realizar los calculos correspondientes de la planilla y crear las relaciones respectivas entre las tablas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño del formulario principal una vez que el usuario se loguea y adaptacion de los formularios hijos. </t>
+  </si>
+  <si>
+    <t>JUAN FLORES/ANDRE ACEDO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +405,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +459,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -480,7 +496,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,29 +532,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209129E8-390A-49F0-9FAE-2E6BC4E8FC93}" name="Tabla3" displayName="Tabla3" ref="A10:H20" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H20" xr:uid="{CE052CFC-4D65-4396-BD5D-008CF3C6222D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H22" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H22"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FD0E33B8-7E55-42BD-A8FA-A3550E75FA05}" name="LUNES"/>
-    <tableColumn id="2" xr3:uid="{245FBD3C-8A65-45EE-BFC1-272B48328239}" name="MARTES"/>
-    <tableColumn id="3" xr3:uid="{4AC5D382-68C9-4370-AB19-A96163E5AEBB}" name="MIÉRCOLES"/>
-    <tableColumn id="4" xr3:uid="{B9464A7E-8A81-4C52-98D4-81AFA8F7552F}" name="JUEVES"/>
-    <tableColumn id="5" xr3:uid="{7B91C5A7-30AD-4BC4-A15D-C46C25EA4E31}" name="VIERNES"/>
-    <tableColumn id="6" xr3:uid="{D2889069-FC58-449D-941C-EA0F318DD7D5}" name="SÁBADO"/>
-    <tableColumn id="7" xr3:uid="{B3EF9136-3592-4711-8444-A47B8776D12B}" name="DOMINGO"/>
-    <tableColumn id="8" xr3:uid="{4E9FB1E1-0624-4FE8-AA11-0070A91F2691}" name="DEVELOPER"/>
+    <tableColumn id="1" name="LUNES"/>
+    <tableColumn id="2" name="MARTES"/>
+    <tableColumn id="3" name="MIÉRCOLES"/>
+    <tableColumn id="4" name="JUEVES"/>
+    <tableColumn id="5" name="VIERNES"/>
+    <tableColumn id="6" name="SÁBADO"/>
+    <tableColumn id="7" name="DOMINGO"/>
+    <tableColumn id="8" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D19" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="1" name="OBSERVACION"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,11 +856,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921E90-C2FD-43C6-ACC7-A767964A2064}">
-  <dimension ref="A2:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +869,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
@@ -1097,7 +1113,22 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="D22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -1108,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
@@ -1323,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD60AB29-B554-4A6C-AFCE-7CFA1AAF150A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>JUAN FLORES/ANDRE ACEDO</t>
+  </si>
+  <si>
+    <t>Crear las tablas para el mantenimiento de la planilla, cts y gratificacion. Relacionar estas tablas con Meses_maestra que sera donde esten todos los meses.</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -412,6 +415,16 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +509,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -532,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H22" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H25" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H25"/>
   <tableColumns count="8">
     <tableColumn id="1" name="LUNES"/>
     <tableColumn id="2" name="MARTES"/>
@@ -857,17 +870,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
@@ -1126,6 +1139,53 @@
         <v>58</v>
       </c>
       <c r="H22" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D23" s="12">
+        <v>44063</v>
+      </c>
+      <c r="E23" s="12">
+        <v>44064</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44065</v>
+      </c>
+      <c r="G23" s="12">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18" t="s">
         <v>60</v>
       </c>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -1041,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,8 +1309,11 @@
       <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF25D39-9B73-418A-A683-956543AB09A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A448C-CD8C-4DE4-BC05-CE36DC7F4078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$25</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -221,10 +224,25 @@
     <t>codigo DNI en empleado</t>
   </si>
   <si>
-    <t>PTP 9 DIGITOS</t>
-  </si>
-  <si>
     <t>Tabla empresa (tabla lista empresa y vista usuario)</t>
+  </si>
+  <si>
+    <t>Crear las tablas (planilla,cts,gratificacion) para realizar los calculos correspondientes de la planilla y crear las relaciones respectivas entre las tablas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño del formulario principal una vez que el usuario se loguea y adaptacion de los formularios hijos. </t>
+  </si>
+  <si>
+    <t>JUAN FLORES/ANDRE ACEDO</t>
+  </si>
+  <si>
+    <t>Crear las tablas para el mantenimiento de la planilla, cts y gratificacion. Relacionar estas tablas con Meses_maestra que sera donde esten todos los meses.</t>
+  </si>
+  <si>
+    <t>Crear tabla Regimen pensionario, comision afp(en SQLSERVER) y Formulario Pensiones</t>
+  </si>
+  <si>
+    <t>Intergridad Referencial a las tablas Creadas (en SQLSERVER), definir diagrama de clases (relacionar perio con tablas)</t>
   </si>
 </sst>
 </file>
@@ -349,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -395,6 +413,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +470,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -516,17 +543,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209129E8-390A-49F0-9FAE-2E6BC4E8FC93}" name="Tabla3" displayName="Tabla3" ref="A10:H20" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H20" xr:uid="{CE052CFC-4D65-4396-BD5D-008CF3C6222D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H25" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FD0E33B8-7E55-42BD-A8FA-A3550E75FA05}" name="LUNES"/>
-    <tableColumn id="2" xr3:uid="{245FBD3C-8A65-45EE-BFC1-272B48328239}" name="MARTES"/>
-    <tableColumn id="3" xr3:uid="{4AC5D382-68C9-4370-AB19-A96163E5AEBB}" name="MIÉRCOLES"/>
-    <tableColumn id="4" xr3:uid="{B9464A7E-8A81-4C52-98D4-81AFA8F7552F}" name="JUEVES"/>
-    <tableColumn id="5" xr3:uid="{7B91C5A7-30AD-4BC4-A15D-C46C25EA4E31}" name="VIERNES"/>
-    <tableColumn id="6" xr3:uid="{D2889069-FC58-449D-941C-EA0F318DD7D5}" name="SÁBADO"/>
-    <tableColumn id="7" xr3:uid="{B3EF9136-3592-4711-8444-A47B8776D12B}" name="DOMINGO"/>
-    <tableColumn id="8" xr3:uid="{4E9FB1E1-0624-4FE8-AA11-0070A91F2691}" name="DEVELOPER"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MIÉRCOLES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="JUEVES"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VIERNES"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SÁBADO"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DOMINGO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,20 +867,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921E90-C2FD-43C6-ACC7-A767964A2064}">
-  <dimension ref="A2:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
@@ -1012,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1055,52 +1082,131 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B19" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44055</v>
+      </c>
+      <c r="D19" s="12">
+        <v>44056</v>
+      </c>
+      <c r="E19" s="12">
+        <v>44057</v>
+      </c>
+      <c r="F19" s="12">
+        <v>44058</v>
+      </c>
+      <c r="G19" s="12">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="s">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="D21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H21" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B22" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D22" s="12">
+        <v>44063</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44064</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44065</v>
+      </c>
+      <c r="G22" s="12">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B24" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C24" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44063</v>
+      </c>
+      <c r="E24" s="12">
+        <v>44064</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44065</v>
+      </c>
+      <c r="G24" s="12">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>44053</v>
-      </c>
-      <c r="B20" s="12">
-        <v>44054</v>
-      </c>
-      <c r="C20" s="12">
-        <v>44055</v>
-      </c>
-      <c r="D20" s="12">
-        <v>44056</v>
-      </c>
-      <c r="E20" s="12">
-        <v>44057</v>
-      </c>
-      <c r="F20" s="12">
-        <v>44058</v>
-      </c>
-      <c r="G20" s="12">
-        <v>44059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1111,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,8 +1324,11 @@
       <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,10 +1383,9 @@
       <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="15" t="s">
         <v>38</v>
       </c>
@@ -1286,10 +1394,9 @@
       <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="15" t="s">
         <v>38</v>
       </c>
@@ -1304,9 +1411,6 @@
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
     </row>
@@ -1323,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD60AB29-B554-4A6C-AFCE-7CFA1AAF150A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A448C-CD8C-4DE4-BC05-CE36DC7F4078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F425A-3130-4837-B51C-844834AF0989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Modificacion del Diseño de empresa y Sucursal(para registrar empleado por empresa).</t>
-  </si>
-  <si>
-    <t>9 pm a 2 am</t>
   </si>
   <si>
     <t>OBSERVACION</t>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Intergridad Referencial a las tablas Creadas (en SQLSERVER), definir diagrama de clases (relacionar perio con tablas)</t>
+  </si>
+  <si>
+    <t>Consultar DNI Y RUC, crear Api.</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H25" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H24" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,242 +965,228 @@
         <v>44052</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>44046</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44047</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44048</v>
+      </c>
+      <c r="D13" s="12">
+        <v>44049</v>
+      </c>
+      <c r="E13" s="12">
+        <v>44050</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44051</v>
+      </c>
+      <c r="G13" s="12">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C16" s="12">
+        <v>44055</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44056</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44057</v>
+      </c>
+      <c r="F16" s="12">
+        <v>44058</v>
+      </c>
+      <c r="G16" s="12">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B18" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C18" s="12">
+        <v>44055</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44056</v>
+      </c>
+      <c r="E18" s="12">
+        <v>44057</v>
+      </c>
+      <c r="F18" s="12">
+        <v>44058</v>
+      </c>
+      <c r="G18" s="12">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>44046</v>
-      </c>
-      <c r="B14" s="12">
-        <v>44047</v>
-      </c>
-      <c r="C14" s="12">
-        <v>44048</v>
-      </c>
-      <c r="D14" s="12">
-        <v>44049</v>
-      </c>
-      <c r="E14" s="12">
-        <v>44050</v>
-      </c>
-      <c r="F14" s="12">
-        <v>44051</v>
-      </c>
-      <c r="G14" s="12">
-        <v>44052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>44053</v>
-      </c>
-      <c r="B17" s="12">
-        <v>44054</v>
-      </c>
-      <c r="C17" s="12">
-        <v>44055</v>
-      </c>
-      <c r="D17" s="12">
-        <v>44056</v>
-      </c>
-      <c r="E17" s="12">
-        <v>44057</v>
-      </c>
-      <c r="F17" s="12">
-        <v>44058</v>
-      </c>
-      <c r="G17" s="12">
-        <v>44059</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>44053</v>
-      </c>
-      <c r="B19" s="12">
-        <v>44054</v>
-      </c>
-      <c r="C19" s="12">
-        <v>44055</v>
-      </c>
-      <c r="D19" s="12">
-        <v>44056</v>
-      </c>
-      <c r="E19" s="12">
-        <v>44057</v>
-      </c>
-      <c r="F19" s="12">
-        <v>44058</v>
-      </c>
-      <c r="G19" s="12">
-        <v>44059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="D21" s="18" t="s">
+      <c r="H20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="18" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B21" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C21" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D21" s="12">
+        <v>44063</v>
+      </c>
+      <c r="E21" s="12">
+        <v>44064</v>
+      </c>
+      <c r="F21" s="12">
+        <v>44065</v>
+      </c>
+      <c r="G21" s="12">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>44060</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B23" s="12">
         <v>44061</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C23" s="12">
         <v>44062</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>44063</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>44064</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>44065</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>44066</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>44060</v>
-      </c>
-      <c r="B24" s="12">
-        <v>44061</v>
-      </c>
-      <c r="C24" s="12">
-        <v>44062</v>
-      </c>
-      <c r="D24" s="12">
-        <v>44063</v>
-      </c>
-      <c r="E24" s="12">
-        <v>44064</v>
-      </c>
-      <c r="F24" s="12">
-        <v>44065</v>
-      </c>
-      <c r="G24" s="12">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="H24" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1217,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,27 +1218,27 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1260,7 +1246,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -1269,149 +1255,154 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F425A-3130-4837-B51C-844834AF0989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95963B-4ED0-4CA3-80A1-5A803AAE4354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -870,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1203,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95963B-4ED0-4CA3-80A1-5A803AAE4354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DDF15-F8EB-476D-BFA6-2F6D8B606A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -170,15 +170,6 @@
     <t>Calculo planilla</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear tabla planilla/analisis en DB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar empleado en una List&lt;&gt; </t>
-  </si>
-  <si>
-    <t>Crear integridad referencial en las tablas señaladas(previo analisis)</t>
-  </si>
-  <si>
     <t>Consultar datos de empleado en T registro(sunat) ver codigo de campos</t>
   </si>
   <si>
@@ -243,6 +234,30 @@
   </si>
   <si>
     <t>Consultar DNI Y RUC, crear Api.</t>
+  </si>
+  <si>
+    <t>Crear tabla planilla, CTS, Gratificacion, Mes maestra</t>
+  </si>
+  <si>
+    <t>Crear integridad referencial en las tablas creadas en sqlserver</t>
+  </si>
+  <si>
+    <t>Mostrar empleado en una List&lt;&gt; o ArraryList</t>
+  </si>
+  <si>
+    <t>Juan/Andre/Carlos</t>
+  </si>
+  <si>
+    <t>Script en sqlsever(para que el ID PRIMARY KEY se incremente manual)</t>
+  </si>
+  <si>
+    <t>Diseño y mantemiento de la tabla Afp comisiones en C#</t>
+  </si>
+  <si>
+    <t>Diseño y mantemiento de la tabla Regimen pensionario en C#</t>
+  </si>
+  <si>
+    <t>Cambiar diseño de botones de los formularios en C#</t>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -423,6 +438,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +579,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D23" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
@@ -870,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1070,13 +1089,13 @@
     </row>
     <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>16</v>
@@ -1107,18 +1126,18 @@
     </row>
     <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="D20" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,14 +1165,14 @@
     </row>
     <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1181,10 +1200,10 @@
     </row>
     <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>16</v>
@@ -1201,18 +1220,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E20"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="7"/>
     <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,7 +1276,7 @@
       <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1287,7 +1306,7 @@
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1308,7 +1327,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
@@ -1324,39 +1343,47 @@
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="D11" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10"/>
+      <c r="D12" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -1367,7 +1394,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>30</v>
@@ -1378,7 +1405,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>30</v>
@@ -1389,24 +1416,71 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="10"/>
+      <c r="D18" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DDF15-F8EB-476D-BFA6-2F6D8B606A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -263,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +525,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -562,29 +561,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H24" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H24" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H24"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MIÉRCOLES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="JUEVES"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VIERNES"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SÁBADO"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DOMINGO"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DEVELOPER"/>
+    <tableColumn id="1" name="LUNES"/>
+    <tableColumn id="2" name="MARTES"/>
+    <tableColumn id="3" name="MIÉRCOLES"/>
+    <tableColumn id="4" name="JUEVES"/>
+    <tableColumn id="5" name="VIERNES"/>
+    <tableColumn id="6" name="SÁBADO"/>
+    <tableColumn id="7" name="DOMINGO"/>
+    <tableColumn id="8" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D23" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="1" name="OBSERVACION"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -886,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1219,11 +1218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,10 +1491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -257,6 +257,33 @@
   </si>
   <si>
     <t>Cambiar diseño de botones de los formularios en C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis y optimizacion de las nuevas tablas creadas, ya que se redujo tablas innecesarias. Se creo una tabla meses de la que heredaran las demas tablas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario tipo contrato no modifica </t>
+  </si>
+  <si>
+    <t>Juan/Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro a la lista que ignore mayusculas y minusculas Empresa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro a la lista que ignore mayusculas y minusculas Sucursal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro a la lista que ignore mayusculas y minusculas Banco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro a la lista que ignore mayusculas y minusculas Cargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro a la lista que ignore mayusculas y minusculas Documento </t>
+  </si>
+  <si>
+    <t>Juan/Andre</t>
   </si>
 </sst>
 </file>
@@ -525,7 +552,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="OBSERVACION"/>
     <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
@@ -888,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,12 +1155,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="D20" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>53</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>55</v>
@@ -1219,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,6 +1511,72 @@
         <v>38</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
@@ -1494,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DDF15-F8EB-476D-BFA6-2F6D8B606A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179149B-1ED6-4E3D-9A78-4758196E5DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Cambiar diseño de botones de los formularios en C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Acceso (error corregido), (Modificar relaciones en Diagrama de clases(DE LA DB) </t>
+  </si>
+  <si>
+    <t>Cambio de diseño(formulario Usuario) Modelo para todos los formulario, Cambiar Filtro para buscar registro e implementar un nuevo componente(DataAnnotations)para validar datos.</t>
   </si>
 </sst>
 </file>
@@ -889,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,12 +1204,18 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>16</v>
@@ -1222,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Juan/Andre</t>
+  </si>
+  <si>
+    <t>Mostrar empleado en una List&lt;&gt; o ArraryList en vez de un DataTable como originalmente estaba, esto ayuda a optimizar el listado de los datos.</t>
+  </si>
+  <si>
+    <t>Creando procedimientos almacenados para autogenerar codigos en las tablas: planilla, cts, gratificacion, periodo, etc. Estos codigos se generaran a partir del ultimo registro.</t>
   </si>
 </sst>
 </file>
@@ -915,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,8 +1202,13 @@
       <c r="B22" s="21" t="s">
         <v>56</v>
       </c>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="18" t="s">
@@ -1251,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -289,7 +289,7 @@
     <t>Mostrar empleado en una List&lt;&gt; o ArraryList en vez de un DataTable como originalmente estaba, esto ayuda a optimizar el listado de los datos.</t>
   </si>
   <si>
-    <t>Creando procedimientos almacenados para autogenerar codigos en las tablas: planilla, cts, gratificacion, periodo, etc. Estos codigos se generaran a partir del ultimo registro.</t>
+    <t>Creando procedimientos almacenados para autogenerar codigos en las tablas: planilla, cts, gratificacion, periodo, etc. Diseño del formulario de mantenimiento de regimen.</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -474,6 +474,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +561,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +935,7 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
@@ -1198,7 +1201,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>56</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>77</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="24" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="20"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Creando procedimientos almacenados para autogenerar codigos en las tablas: planilla, cts, gratificacion, periodo, etc. Diseño del formulario de mantenimiento de regimen.</t>
+  </si>
+  <si>
+    <t>Filtro a la lista de las tablas: Banco y Cargo. Esto se hara para no tener que consultar a la base de datos cada vez que se filtre algun dato.</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +567,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1218,9 @@
       <c r="E22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="G22" s="20"/>
       <c r="H22" s="18" t="s">
         <v>55</v>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CCB36-8038-4512-8653-787DA01FD89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -298,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,7 +568,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,29 +604,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H24" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H24" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="LUNES"/>
-    <tableColumn id="2" name="MARTES"/>
-    <tableColumn id="3" name="MIÉRCOLES"/>
-    <tableColumn id="4" name="JUEVES"/>
-    <tableColumn id="5" name="VIERNES"/>
-    <tableColumn id="6" name="SÁBADO"/>
-    <tableColumn id="7" name="DOMINGO"/>
-    <tableColumn id="8" name="DEVELOPER"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MIÉRCOLES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="JUEVES"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VIERNES"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SÁBADO"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DOMINGO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="OBSERVACION"/>
-    <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,10 +928,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1270,11 +1271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179149B-1ED6-4E3D-9A78-4758196E5DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC8BB7-1CC4-4266-B110-319C61F49D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -260,17 +260,67 @@
     <t>Cambiar diseño de botones de los formularios en C#</t>
   </si>
   <si>
-    <t xml:space="preserve">Login Acceso (error corregido), (Modificar relaciones en Diagrama de clases(DE LA DB) </t>
-  </si>
-  <si>
-    <t>Cambio de diseño(formulario Usuario) Modelo para todos los formulario, Cambiar Filtro para buscar registro e implementar un nuevo componente(DataAnnotations)para validar datos.</t>
+    <t xml:space="preserve">Login Acceso (error corregido), (Modificar relaciones en Diagrama de clases(DE LA BASE DE DATOS) </t>
+  </si>
+  <si>
+    <r>
+      <t>Cambio de diseño(formulario Usuario) Modelo para todos los formulario, Cambiar Filtro para buscar registro e implementar un nuevo componente(DataAnnotations)para validar datos.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Formulario Usuario en C#(prueba de validacion y filtro al registro)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO EN LA DB.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +413,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -895,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,6 +1281,12 @@
       <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H24" s="17" t="s">
         <v>16</v>
       </c>
@@ -1234,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC8BB7-1CC4-4266-B110-319C61F49D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B07385-38D0-4E06-822C-D00327A7B9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -313,7 +313,7 @@
     </r>
   </si>
   <si>
-    <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO EN LA DB.</t>
+    <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO DB.</t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1284,7 +1284,7 @@
       <c r="E24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H24" s="17" t="s">
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CCB36-8038-4512-8653-787DA01FD89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7686EFA-0F4D-4850-9D3B-BF075D8B03F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>DEVELOPER</t>
-  </si>
-  <si>
-    <t>9AM A 4PM</t>
   </si>
   <si>
     <t>CARLOS MEZA</t>
@@ -295,12 +292,68 @@
   <si>
     <t>Filtro a la lista de las tablas: Banco y Cargo. Esto se hara para no tener que consultar a la base de datos cada vez que se filtre algun dato.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Login Acceso (error corregido), (Modificar relaciones en Diagrama de clases(DE LA BASE DE DATOS) </t>
+  </si>
+  <si>
+    <r>
+      <t>Cambio de diseño(formulario Usuario) Modelo para todos los formulario, Cambiar Filtro para buscar registro e implementar un nuevo componente(DataAnnotations)para validar datos.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Formulario Usuario en C#(prueba de validacion y filtro al registro)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO EN LA DB.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +420,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,6 +428,7 @@
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,6 +452,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -406,7 +475,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -414,11 +483,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -483,6 +561,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,8 +685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H24" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
@@ -929,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1035,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1031,19 +1112,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1069,201 +1150,196 @@
         <v>44052</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44055</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44056</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44057</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44058</v>
+      </c>
+      <c r="G15" s="12">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11" t="s">
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44054</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44055</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44056</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44057</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44058</v>
+      </c>
+      <c r="G17" s="12">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="D19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44063</v>
+      </c>
+      <c r="E20" s="12">
+        <v>44064</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44065</v>
+      </c>
+      <c r="G20" s="12">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B22" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D22" s="12">
+        <v>44063</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44064</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44065</v>
+      </c>
+      <c r="G22" s="12">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>44053</v>
-      </c>
-      <c r="B16" s="12">
-        <v>44054</v>
-      </c>
-      <c r="C16" s="12">
-        <v>44055</v>
-      </c>
-      <c r="D16" s="12">
-        <v>44056</v>
-      </c>
-      <c r="E16" s="12">
-        <v>44057</v>
-      </c>
-      <c r="F16" s="12">
-        <v>44058</v>
-      </c>
-      <c r="G16" s="12">
-        <v>44059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>44053</v>
-      </c>
-      <c r="B18" s="12">
-        <v>44054</v>
-      </c>
-      <c r="C18" s="12">
-        <v>44055</v>
-      </c>
-      <c r="D18" s="12">
-        <v>44056</v>
-      </c>
-      <c r="E18" s="12">
-        <v>44057</v>
-      </c>
-      <c r="F18" s="12">
-        <v>44058</v>
-      </c>
-      <c r="G18" s="12">
-        <v>44059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="D20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>44060</v>
-      </c>
-      <c r="B21" s="12">
-        <v>44061</v>
-      </c>
-      <c r="C21" s="12">
-        <v>44062</v>
-      </c>
-      <c r="D21" s="12">
-        <v>44063</v>
-      </c>
-      <c r="E21" s="12">
-        <v>44064</v>
-      </c>
-      <c r="F21" s="12">
-        <v>44065</v>
-      </c>
-      <c r="G21" s="12">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>44060</v>
-      </c>
-      <c r="B23" s="12">
-        <v>44061</v>
-      </c>
-      <c r="C23" s="12">
-        <v>44062</v>
-      </c>
-      <c r="D23" s="12">
-        <v>44063</v>
-      </c>
-      <c r="E23" s="12">
-        <v>44064</v>
-      </c>
-      <c r="F23" s="12">
-        <v>44065</v>
-      </c>
-      <c r="G23" s="12">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1274,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,315 +1365,314 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7686EFA-0F4D-4850-9D3B-BF075D8B03F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B43A2D5-03B7-44F7-923B-A217CD9964E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO EN LA DB.</t>
+  </si>
+  <si>
+    <t>Formulario para ingresar un nuevo regimen y conexión con la base de datos mediante un procedimiento almacenado.</t>
+  </si>
+  <si>
+    <t>Formulario para listar los regimenes existentes y conexión con la base de datos mediante un procedimiento almacenado sp_show_regimen.</t>
   </si>
 </sst>
 </file>
@@ -467,12 +473,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -496,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -565,12 +577,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -601,20 +640,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,7 +710,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A10:H23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
@@ -705,9 +730,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1010,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,6 +1362,55 @@
         <v>15</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>44067</v>
+      </c>
+      <c r="B25" s="12">
+        <v>44068</v>
+      </c>
+      <c r="C25" s="12">
+        <v>44069</v>
+      </c>
+      <c r="D25" s="12">
+        <v>44070</v>
+      </c>
+      <c r="E25" s="12">
+        <v>44071</v>
+      </c>
+      <c r="F25" s="12">
+        <v>44072</v>
+      </c>
+      <c r="G25" s="12">
+        <v>44073</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -1350,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1654,7 @@
       <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B43A2D5-03B7-44F7-923B-A217CD9964E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA39A0-2A1F-4D1C-B5C8-4B61CEAE55D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -359,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +472,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -508,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -590,26 +597,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -640,6 +636,20 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,7 +720,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A10:H23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
@@ -730,9 +740,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1425,7 +1435,7 @@
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1653,8 @@
       <c r="A20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -1687,7 +1698,7 @@
       <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -1723,6 +1734,9 @@
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D27" s="15" t="s">
         <v>75</v>
       </c>
@@ -1732,6 +1746,9 @@
         <v>73</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7686EFA-0F4D-4850-9D3B-BF075D8B03F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDF318-B397-4F0C-A8A4-D28D980FE88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO EN LA DB.</t>
+  </si>
+  <si>
+    <t>Formulario Sucursal, vista usuario en C#(validacion y filtro), se modifico el procedimiento almacenado en la DB.</t>
+  </si>
+  <si>
+    <t>Tablas empleado, contrato, comisiones(modificado) y alterar los procedimientos almacenados de las tablas en sqlserver</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -483,20 +489,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -561,9 +558,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,6 +565,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -601,20 +609,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,8 +679,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H25" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A10:H25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
@@ -705,9 +699,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1010,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,25 +1309,59 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>82</v>
       </c>
       <c r="H23" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44067</v>
+      </c>
+      <c r="B24" s="12">
+        <v>44068</v>
+      </c>
+      <c r="C24" s="12">
+        <v>44069</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44070</v>
+      </c>
+      <c r="E24" s="12">
+        <v>44071</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44072</v>
+      </c>
+      <c r="G24" s="12">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1350,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,6 +1600,9 @@
       <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="15" t="s">
         <v>37</v>
       </c>
@@ -1635,7 +1666,7 @@
       <c r="A26" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="15" t="s">

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA39A0-2A1F-4D1C-B5C8-4B61CEAE55D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82ABCEA-C73F-4D92-8EAE-00433191A8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -346,13 +346,13 @@
     </r>
   </si>
   <si>
-    <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO EN LA DB.</t>
-  </si>
-  <si>
     <t>Formulario para ingresar un nuevo regimen y conexión con la base de datos mediante un procedimiento almacenado.</t>
   </si>
   <si>
     <t>Formulario para listar los regimenes existentes y conexión con la base de datos mediante un procedimiento almacenado sp_show_regimen.</t>
+  </si>
+  <si>
+    <t>fg</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1366,7 @@
         <v>81</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>15</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
@@ -1434,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82ABCEA-C73F-4D92-8EAE-00433191A8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -354,11 +353,17 @@
   <si>
     <t>fg</t>
   </si>
+  <si>
+    <t xml:space="preserve">Creacion del procedimiento almacenado actualizar el regimen y filtrado de datos de la lista de regimenes. </t>
+  </si>
+  <si>
+    <t>Diseño del formulario planilla, analisis y relacion de las tablas planilla,mes, y periodo.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -600,6 +605,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,7 +692,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,29 +728,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H23"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MIÉRCOLES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="JUEVES"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VIERNES"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SÁBADO"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DOMINGO"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DEVELOPER"/>
+    <tableColumn id="1" name="LUNES"/>
+    <tableColumn id="2" name="MARTES"/>
+    <tableColumn id="3" name="MIÉRCOLES"/>
+    <tableColumn id="4" name="JUEVES"/>
+    <tableColumn id="5" name="VIERNES"/>
+    <tableColumn id="6" name="SÁBADO"/>
+    <tableColumn id="7" name="DOMINGO"/>
+    <tableColumn id="8" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="1" name="OBSERVACION"/>
+    <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,8 +1420,12 @@
       <c r="B26" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>86</v>
+      </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
       <c r="G26" s="28"/>
@@ -1431,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
@@ -1776,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDF318-B397-4F0C-A8A4-D28D980FE88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A9E30-A9CF-46D5-88DB-D1CA03FDD566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>LOGIN ACCESO(sincronizar con la base de datos)</t>
-  </si>
-  <si>
-    <t>HORA</t>
   </si>
   <si>
     <t>Modificar procedimiento almacenado para preparar scrip en sql transact(para empresa y sucursal, codigo unico y no duplicado)</t>
@@ -353,6 +350,12 @@
   </si>
   <si>
     <t>Tablas empleado, contrato, comisiones(modificado) y alterar los procedimientos almacenados de las tablas en sqlserver</t>
+  </si>
+  <si>
+    <t>Tabla contrato Modificado(en sqlserver), Diseño de empleado y su contrato en C# e insertar datos a la lista desplegable para mostrar información.  Crear sus respectivos procedimientos almacenados en sqlserver.</t>
+  </si>
+  <si>
+    <t>Analis Diagrama de Base de datos, cambios en la realación de tablas(cardinalidad)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,9 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,20 +565,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -609,6 +595,20 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -679,8 +679,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H25" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A10:H25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H24" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A10:H24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
@@ -699,9 +699,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,15 +1004,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="D16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>15</v>
@@ -1224,150 +1224,151 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="D19" s="18" t="s">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B19" s="12">
+        <v>44061</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44062</v>
+      </c>
+      <c r="D19" s="12">
+        <v>44063</v>
+      </c>
+      <c r="E19" s="12">
+        <v>44064</v>
+      </c>
+      <c r="F19" s="12">
+        <v>44065</v>
+      </c>
+      <c r="G19" s="12">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>44060</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B21" s="12">
         <v>44061</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C21" s="12">
         <v>44062</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>44063</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>44064</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>44065</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>44066</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+    <row r="22" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="25" t="s">
+      <c r="B22" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>44060</v>
-      </c>
-      <c r="B22" s="12">
-        <v>44061</v>
-      </c>
-      <c r="C22" s="12">
-        <v>44062</v>
-      </c>
-      <c r="D22" s="12">
-        <v>44063</v>
-      </c>
-      <c r="E22" s="12">
-        <v>44064</v>
-      </c>
-      <c r="F22" s="12">
-        <v>44065</v>
-      </c>
-      <c r="G22" s="12">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="H22" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44067</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44068</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44069</v>
+      </c>
+      <c r="D23" s="12">
+        <v>44070</v>
+      </c>
+      <c r="E23" s="12">
+        <v>44071</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44072</v>
+      </c>
+      <c r="G23" s="12">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>44067</v>
-      </c>
-      <c r="B24" s="12">
-        <v>44068</v>
-      </c>
-      <c r="C24" s="12">
-        <v>44069</v>
-      </c>
-      <c r="D24" s="12">
-        <v>44070</v>
-      </c>
-      <c r="E24" s="12">
-        <v>44071</v>
-      </c>
-      <c r="F24" s="12">
-        <v>44072</v>
-      </c>
-      <c r="G24" s="12">
-        <v>44073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+      <c r="D24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="E24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H24" s="17" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1378,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1483,7 +1484,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>29</v>
@@ -1500,23 +1501,23 @@
         <v>29</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>60</v>
+      <c r="A13" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>29</v>
@@ -1539,7 +1540,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>29</v>
@@ -1550,7 +1551,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>29</v>
@@ -1561,7 +1562,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>29</v>
@@ -1572,7 +1573,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>29</v>
@@ -1583,19 +1584,19 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>29</v>
@@ -1609,7 +1610,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>29</v>
@@ -1620,7 +1621,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>29</v>
@@ -1631,7 +1632,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>29</v>
@@ -1642,18 +1643,18 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>29</v>
@@ -1664,7 +1665,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>29</v>
@@ -1675,35 +1676,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -358,6 +358,31 @@
   </si>
   <si>
     <t>Diseño del formulario planilla, analisis y relacion de las tablas planilla,mes, y periodo.</t>
+  </si>
+  <si>
+    <r>
+      <t>Desarrollo de el procedimiento ingresar una nueva planilla por periodo y mes. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -692,7 +717,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1081,7 @@
   <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1451,9 @@
       <c r="D26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="F26" s="30"/>
       <c r="G26" s="28"/>
       <c r="H26" s="27" t="s">

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A9E30-A9CF-46D5-88DB-D1CA03FDD566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556DF9B8-53C7-46E7-8C3A-345BA30DC607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Analis Diagrama de Base de datos, cambios en la realación de tablas(cardinalidad)</t>
+  </si>
+  <si>
+    <t>Modificar Procedimiento mostrar en sqlserver(banco, tipo documento, cargo, tipo de contrato) se borro varias lineas de codigo en sqlserver y C#</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1365,9 @@
       <c r="E24" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H24" s="17" t="s">
         <v>15</v>
       </c>
@@ -1379,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1651,7 @@
       <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="15" t="s">

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Source\Repos\Planillalct\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FEBAE-02C0-4AF6-B36B-5F8421ABE6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -351,9 +352,6 @@
     <t>Formulario para listar los regimenes existentes y conexión con la base de datos mediante un procedimiento almacenado sp_show_regimen.</t>
   </si>
   <si>
-    <t>fg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creacion del procedimiento almacenado actualizar el regimen y filtrado de datos de la lista de regimenes. </t>
   </si>
   <si>
@@ -384,11 +382,29 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Formulario Empresa y vista empresa en  C#(validacion y filtro), se modifico el PROCEDIENTO ALMACENADO EN LA DB.</t>
+  </si>
+  <si>
+    <t>Analis Diagrama de Base de datos, cambios en la realación de tablas(cardinalidad)</t>
+  </si>
+  <si>
+    <t>Formulario Sucursal, vista usuario en C#(validacion y filtro), se modifico el procedimiento almacenado en la DB.</t>
+  </si>
+  <si>
+    <t>Tablas empleado, contrato, comisiones(modificado) y alterar los procedimientos almacenados de las tablas en sqlserver</t>
+  </si>
+  <si>
+    <t>Tabla contrato Modificado(en sqlserver), Diseño de empleado y su contrato en C# e insertar datos a la lista desplegable para mostrar información.  Crear sus respectivos procedimientos almacenados en sqlserver.</t>
+  </si>
+  <si>
+    <t>Modificar Procedimiento mostrar en sqlserver(banco, tipo documento, cargo, tipo de contrato) se borro varias lineas de codigo en sqlserver y C#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -532,20 +548,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -612,9 +619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,12 +637,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -669,20 +693,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,7 +727,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F01E6D0-6DFB-473B-A4B0-B952A987C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,29 +763,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A10:H23" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A10:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A10:H27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="LUNES"/>
-    <tableColumn id="2" name="MARTES"/>
-    <tableColumn id="3" name="MIÉRCOLES"/>
-    <tableColumn id="4" name="JUEVES"/>
-    <tableColumn id="5" name="VIERNES"/>
-    <tableColumn id="6" name="SÁBADO"/>
-    <tableColumn id="7" name="DOMINGO"/>
-    <tableColumn id="8" name="DEVELOPER"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MARTES"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MIÉRCOLES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="JUEVES"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VIERNES"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SÁBADO"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DOMINGO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="OBSERVACION"/>
-    <tableColumn id="2" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1077,11 +1087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,81 +1393,117 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>44067</v>
+      </c>
+      <c r="B24" s="34">
+        <v>44068</v>
+      </c>
+      <c r="C24" s="34">
+        <v>44069</v>
+      </c>
+      <c r="D24" s="34">
+        <v>44070</v>
+      </c>
+      <c r="E24" s="34">
+        <v>44071</v>
+      </c>
+      <c r="F24" s="34">
+        <v>44072</v>
+      </c>
+      <c r="G24" s="34">
+        <v>44073</v>
+      </c>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="D25" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>44067</v>
+      </c>
+      <c r="B26" s="34">
+        <v>44068</v>
+      </c>
+      <c r="C26" s="34">
+        <v>44069</v>
+      </c>
+      <c r="D26" s="34">
+        <v>44070</v>
+      </c>
+      <c r="E26" s="34">
+        <v>44071</v>
+      </c>
+      <c r="F26" s="34">
+        <v>44072</v>
+      </c>
+      <c r="G26" s="34">
+        <v>44073</v>
+      </c>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>44067</v>
-      </c>
-      <c r="B25" s="12">
-        <v>44068</v>
-      </c>
-      <c r="C25" s="12">
-        <v>44069</v>
-      </c>
-      <c r="D25" s="12">
-        <v>44070</v>
-      </c>
-      <c r="E25" s="12">
-        <v>44071</v>
-      </c>
-      <c r="F25" s="12">
-        <v>44072</v>
-      </c>
-      <c r="G25" s="12">
-        <v>44073</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="27" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1470,11 +1516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1738,7 @@
       <c r="A20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1759,7 +1805,7 @@
       <c r="A26" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -1770,9 +1816,6 @@
       <c r="A27" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
@@ -1783,9 +1826,6 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>29</v>
@@ -1815,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FEBAE-02C0-4AF6-B36B-5F8421ABE6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462772C9-BAF2-48B3-88C2-80B812BEAED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME" sheetId="4" r:id="rId1"/>
@@ -650,20 +650,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -693,6 +679,20 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A10:H27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
@@ -783,9 +783,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FEBAE-02C0-4AF6-B36B-5F8421ABE6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5FC030-CF93-4CE6-9EFE-958BB5636B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INFORME" sheetId="4" r:id="rId1"/>
-    <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
+    <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
+    <sheet name="PENDIENTES" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'INFORME AGOSTO'!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -400,12 +401,95 @@
   <si>
     <t>Modificar Procedimiento mostrar en sqlserver(banco, tipo documento, cargo, tipo de contrato) se borro varias lineas de codigo en sqlserver y C#</t>
   </si>
+  <si>
+    <t>Se inserto datos a la tabla Empleado y contrato (con un solo proceso)para eso, se modifico los procedimientos en SQLSERVER Y el codigo fuente en VBC#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Listar solo Nombre de empleado al ser registrado y contratado, luego se tendra que mostrar todos sus datos laborales en los campos del formulario para su respectiva Actualizacion( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pruebas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se hizo varias pruebas(para mostrar datos laborales en campos del formulario), en conclucion se implemento una propiedad nueva de ADO.NET(DATAROW)lista de datos laborales del empleado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluido</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +609,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -540,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -548,11 +639,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -644,14 +744,28 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -659,9 +773,45 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -693,6 +843,20 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,7 +927,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A10:H27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
@@ -780,12 +944,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A9:H11" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C51D3758-B97A-4E03-B404-E72F7D39CC77}" name="DEVELOPER"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1090,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,11 +1697,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>44074</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44075</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44076</v>
+      </c>
+      <c r="D10" s="37">
+        <v>44077</v>
+      </c>
+      <c r="E10" s="37">
+        <v>44078</v>
+      </c>
+      <c r="F10" s="37">
+        <v>44079</v>
+      </c>
+      <c r="G10" s="37">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462772C9-BAF2-48B3-88C2-80B812BEAED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C4513-FA3E-4D72-81C6-984BB910A42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INFORME" sheetId="4" r:id="rId1"/>
-    <sheet name="PENDIENTES" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
+    <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
+    <sheet name="PENDIENTES" sheetId="2" r:id="rId3"/>
+    <sheet name="PATRON" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INFORME!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'INFORME AGOSTO'!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -400,12 +401,95 @@
   <si>
     <t>Modificar Procedimiento mostrar en sqlserver(banco, tipo documento, cargo, tipo de contrato) se borro varias lineas de codigo en sqlserver y C#</t>
   </si>
+  <si>
+    <t>Se inserto datos a la tabla Empleado y contrato (con un solo proceso)para eso, se modifico los procedimientos en SQLSERVER Y el codigo fuente en VBC#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Listar solo Nombre de empleado al ser registrado y contratado, luego se tendra que mostrar todos sus datos laborales en los campos del formulario para su respectiva Actualizacion( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pruebas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se hizo varias pruebas(para mostrar datos laborales en campos del formulario), en conclucion se implemento una propiedad nueva de ADO.NET(DATAROW)lista de datos laborales del empleado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluido</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +609,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -540,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -548,11 +639,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -644,11 +744,24 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -679,6 +792,60 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -763,7 +930,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A10:H27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
@@ -780,6 +947,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H11" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H11" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C51D3758-B97A-4E03-B404-E72F7D39CC77}" name="DEVELOPER"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
@@ -1090,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,11 +1700,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>44074</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44075</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44076</v>
+      </c>
+      <c r="D10" s="37">
+        <v>44077</v>
+      </c>
+      <c r="E10" s="37">
+        <v>44078</v>
+      </c>
+      <c r="F10" s="37">
+        <v>44079</v>
+      </c>
+      <c r="G10" s="37">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,15 +2158,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C4513-FA3E-4D72-81C6-984BB910A42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F4CE11-7C0B-41E2-AD3D-35871D938930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -483,6 +483,9 @@
       </rPr>
       <t>concluido</t>
     </r>
+  </si>
+  <si>
+    <t>Recuperacion  codigo idperiodo(de tabla pariodo en sqlserver)para el inicio de sesion y sus respectivas operaciones con el registro</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1805,9 @@
       <c r="C11" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
@@ -2162,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F4CE11-7C0B-41E2-AD3D-35871D938930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD4A1A-EC4D-4CE6-B325-A1D7EF449B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -487,12 +487,30 @@
   <si>
     <t>Recuperacion  codigo idperiodo(de tabla pariodo en sqlserver)para el inicio de sesion y sus respectivas operaciones con el registro</t>
   </si>
+  <si>
+    <t>Se creo el apartado de Planilla y conexión con el procedimiento almacenado de Registro y mostrar planilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño del formualrio Mantenimiento de planilla : Modificar , Eliminar </t>
+  </si>
+  <si>
+    <t>Inicio de sesion con año actual mediante el id_periodo. Validacion de datos en el formulario planilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculo de horas mediante la fecha inicial y fecha final en el registro de planilla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimiento almacenado para modificar una planilla registrada. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +637,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -655,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -759,6 +783,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,25 +827,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -950,8 +980,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H11" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H11" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H12" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H12" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -1704,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,25 +1825,54 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="39" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="39" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F4CE11-7C0B-41E2-AD3D-35871D938930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9568D454-238E-41BF-85B8-387144C96F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -485,7 +485,13 @@
     </r>
   </si>
   <si>
-    <t>Recuperacion  codigo idperiodo(de tabla pariodo en sqlserver)para el inicio de sesion y sus respectivas operaciones con el registro</t>
+    <t xml:space="preserve">Procedimiento Modificar en sqlserver(empleado y contrato)y el codigo fuente en C# </t>
+  </si>
+  <si>
+    <t>Recuperacion  codigo idperiodo(de tabla periodo en sqlserver)para el inicio de sesion y sus respectivas operaciones con el registro</t>
+  </si>
+  <si>
+    <t>Analisis de Errores y corregidos</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,10 +1812,14 @@
         <v>95</v>
       </c>
       <c r="D11" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="F11" s="38" t="s">
+        <v>98</v>
+      </c>
       <c r="G11" s="36"/>
       <c r="H11" s="39" t="s">
         <v>15</v>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD4A1A-EC4D-4CE6-B325-A1D7EF449B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFCB94-CFE1-4FA3-B349-6C61D7A83515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Crear integridad referencial en las tablas creadas en sqlserver</t>
-  </si>
-  <si>
-    <t>Mostrar empleado en una List&lt;&gt; o ArraryList</t>
   </si>
   <si>
     <t>Juan/Andre/Carlos</t>
@@ -485,9 +482,6 @@
     </r>
   </si>
   <si>
-    <t>Recuperacion  codigo idperiodo(de tabla pariodo en sqlserver)para el inicio de sesion y sus respectivas operaciones con el registro</t>
-  </si>
-  <si>
     <t>Se creo el apartado de Planilla y conexión con el procedimiento almacenado de Registro y mostrar planilla.</t>
   </si>
   <si>
@@ -501,15 +495,21 @@
   </si>
   <si>
     <t xml:space="preserve">Procedimiento almacenado para modificar una planilla registrada. </t>
+  </si>
+  <si>
+    <t>Recuperacion  codigo idperiodo(de tabla periodo en sqlserver)para el inicio de sesion y sus respectivas operaciones con el registro</t>
+  </si>
+  <si>
+    <t>Analisis de Errores y corregidos</t>
+  </si>
+  <si>
+    <t>Procedimiento Modificar en sqlserver(empleado y contrato)y el codigo fuente en C#  OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -774,21 +774,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,25 +833,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -980,8 +986,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H12" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H12" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H13" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H13" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -997,7 +1003,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D28" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
@@ -1538,7 +1544,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>54</v>
@@ -1572,14 +1578,14 @@
         <v>55</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="18" t="s">
@@ -1617,16 +1623,16 @@
         <v>57</v>
       </c>
       <c r="C23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>81</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="33" t="s">
@@ -1659,19 +1665,19 @@
     </row>
     <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="D25" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="E25" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>86</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="27"/>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>15</v>
@@ -1736,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,76 +1809,94 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="36">
         <v>44074</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>44075</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>44076</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>44077</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>44078</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>44079</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>44080</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>44074</v>
+      </c>
+      <c r="B12" s="43">
+        <v>44075</v>
+      </c>
+      <c r="C12" s="43">
+        <v>44076</v>
+      </c>
+      <c r="D12" s="43">
+        <v>44077</v>
+      </c>
+      <c r="E12" s="43">
+        <v>44078</v>
+      </c>
+      <c r="F12" s="43">
+        <v>44079</v>
+      </c>
+      <c r="G12" s="43">
+        <v>44080</v>
+      </c>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E13" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="39" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1885,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1962,7 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2009,46 +2033,46 @@
         <v>29</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>29</v>
@@ -2059,7 +2083,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>29</v>
@@ -2070,7 +2094,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>29</v>
@@ -2081,32 +2105,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="31"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
@@ -2116,46 +2140,46 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,7 +2201,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,29 +2212,18 @@
         <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD4A1A-EC4D-4CE6-B325-A1D7EF449B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229A6C0-BB52-4169-B5FD-261A03C05ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t xml:space="preserve">Procedimiento almacenado para modificar una planilla registrada. </t>
+  </si>
+  <si>
+    <t>Juan Flores Meca, Andre Acedo Coba</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -789,6 +792,9 @@
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1736,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,6 +1849,9 @@
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
+      <c r="H11" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
@@ -1887,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229A6C0-BB52-4169-B5FD-261A03C05ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96603382-1EA7-4A2F-B0AF-05E70EB1C86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
     <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId3"/>
     <sheet name="PATRON" sheetId="3" r:id="rId4"/>
+    <sheet name="Error" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'INFORME AGOSTO'!$A$1:$H$27</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -238,9 +239,6 @@
   </si>
   <si>
     <t>Crear integridad referencial en las tablas creadas en sqlserver</t>
-  </si>
-  <si>
-    <t>Mostrar empleado en una List&lt;&gt; o ArraryList</t>
   </si>
   <si>
     <t>Juan/Andre/Carlos</t>
@@ -504,6 +502,30 @@
   </si>
   <si>
     <t>Juan Flores Meca, Andre Acedo Coba</t>
+  </si>
+  <si>
+    <t>Procedimiento Modificar en sqlserver(empleado y contrato)y el codigo fuente en C#  OK</t>
+  </si>
+  <si>
+    <t>Analisis de Errores y corregidos</t>
+  </si>
+  <si>
+    <t>Mostrar planilla por empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla de subsidios </t>
+  </si>
+  <si>
+    <t>Tabla de aportaciones</t>
+  </si>
+  <si>
+    <t>Tabla de No subsidios</t>
+  </si>
+  <si>
+    <t>Regimen salud</t>
+  </si>
+  <si>
+    <t>Tabla dias/horas</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1025,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D28" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
@@ -1544,7 +1566,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>54</v>
@@ -1578,14 +1600,14 @@
         <v>55</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="18" t="s">
@@ -1623,16 +1645,16 @@
         <v>57</v>
       </c>
       <c r="C23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>81</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="33" t="s">
@@ -1665,19 +1687,19 @@
     </row>
     <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="D25" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="E25" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>86</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="27"/>
@@ -1711,19 +1733,19 @@
     </row>
     <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>15</v>
@@ -1742,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1833,41 +1855,45 @@
     </row>
     <row r="11" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="C11" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D11" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="E11" s="41" t="s">
         <v>100</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>101</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="C12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="G12" s="36"/>
       <c r="H12" s="39" t="s">
         <v>15</v>
@@ -1894,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +1973,7 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2018,46 +2044,46 @@
         <v>29</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>29</v>
@@ -2068,7 +2094,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>29</v>
@@ -2079,7 +2105,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>29</v>
@@ -2090,32 +2116,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="31"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
@@ -2125,46 +2151,46 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2186,7 +2212,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,29 +2223,18 @@
         <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2245,4 +2260,52 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8302B75-CA61-4823-A356-B6EB99D8917F}">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFCB94-CFE1-4FA3-B349-6C61D7A83515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CAB922-4076-4A88-BC55-9CD215CCB75B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="1350" windowWidth="15375" windowHeight="9720" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96603382-1EA7-4A2F-B0AF-05E70EB1C86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFED611-F698-4DD8-A3C2-AD6B98423F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -526,6 +526,21 @@
   </si>
   <si>
     <t>Tabla dias/horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de apartado de planilla  modificar y conexión con la BD. Se agrego el campo mes a la base de datos en la tabla planilla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se creo el procedimiento almacenado de eliminacion de planilla y se completo su apatado y conexión con la BD. </t>
+  </si>
+  <si>
+    <t>Se modifico ingresar planilla para determinar las horas y los dias laborados. Ademas la insercion de planilla se realiza según el año que inicia sesion el usuario.</t>
+  </si>
+  <si>
+    <t>Se modifico fecha inicial y final para que se actualizen según el mes que se seleccione.</t>
+  </si>
+  <si>
+    <t>Revision del Web service para consultar el RUC de una empresa en el formulario empresa creado con anterioridad.</t>
   </si>
 </sst>
 </file>
@@ -704,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -817,6 +832,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,8 +1027,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H12" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H12" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H14" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H14" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -1335,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1894,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>92</v>
       </c>
@@ -1899,15 +1918,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>44074</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44075</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44076</v>
+      </c>
+      <c r="D13" s="37">
+        <v>44077</v>
+      </c>
+      <c r="E13" s="37">
+        <v>44078</v>
+      </c>
+      <c r="F13" s="37">
+        <v>44079</v>
+      </c>
+      <c r="G13" s="37">
+        <v>44080</v>
+      </c>
       <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8302B75-CA61-4823-A356-B6EB99D8917F}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFED611-F698-4DD8-A3C2-AD6B98423F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669E3C69-A50B-412D-8D1B-D53D12ED0B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1784,7 +1784,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1956,7 @@
       <c r="E14" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="44" t="s">
         <v>114</v>
       </c>
       <c r="G14" s="43"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96603382-1EA7-4A2F-B0AF-05E70EB1C86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866AA528-1708-4E2A-B6B5-B8269A3143A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -527,15 +527,135 @@
   <si>
     <t>Tabla dias/horas</t>
   </si>
+  <si>
+    <t>Implementer en insertar nuevo cargo en formulario empleado, para poder registrar</t>
+  </si>
+  <si>
+    <r>
+      <t>Implementar ApiRest para consulta DNI a RENIEC(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Configuracion, instalacion de complementos en VBC#, para comunicación con API DNI y recuperar en Archivo JSON(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente en prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>API DNI(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), formulario COMISIONES AFP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>API DNI(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ok,concluido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) se implemento en formulario empleado consultar DNI en RENIEC Y recuperar Datos.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +788,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -809,10 +936,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -855,25 +982,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1008,8 +1135,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H12" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H12" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H16" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H16" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -1762,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,39 +2002,107 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>44074</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44075</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44076</v>
+      </c>
+      <c r="D12" s="37">
+        <v>44077</v>
+      </c>
+      <c r="E12" s="37">
+        <v>44078</v>
+      </c>
+      <c r="F12" s="37">
+        <v>44079</v>
+      </c>
+      <c r="G12" s="37">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B13" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C13" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D13" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E13" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="39" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <v>44081</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44082</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44083</v>
+      </c>
+      <c r="D14" s="37">
+        <v>44084</v>
+      </c>
+      <c r="E14" s="37">
+        <v>44085</v>
+      </c>
+      <c r="F14" s="37">
+        <v>44086</v>
+      </c>
+      <c r="G14" s="37">
+        <v>44087</v>
+      </c>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8302B75-CA61-4823-A356-B6EB99D8917F}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866AA528-1708-4E2A-B6B5-B8269A3143A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737CD28B-4C7B-4884-97A0-CBF3E0211899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -649,6 +649,9 @@
       </rPr>
       <t>) se implemento en formulario empleado consultar DNI en RENIEC Y recuperar Datos.</t>
     </r>
+  </si>
+  <si>
+    <t>Insercion Multiple, en SqlServer, se uso commit y rollback</t>
   </si>
 </sst>
 </file>
@@ -1891,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2092,9 @@
       <c r="E15" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>115</v>
+      </c>
       <c r="G15" s="38"/>
       <c r="H15" s="1" t="s">
         <v>15</v>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\lctsistemas\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737CD28B-4C7B-4884-97A0-CBF3E0211899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9AFE4F-AAC2-4D0A-9132-A01A0A13F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -652,6 +652,18 @@
   </si>
   <si>
     <t>Insercion Multiple, en SqlServer, se uso commit y rollback</t>
+  </si>
+  <si>
+    <t>Implenmentar ApiRest para consulta de RUC pensiente</t>
+  </si>
+  <si>
+    <t>Modulo de planilla se agrego un nuevo campo llamado id_empresa.</t>
+  </si>
+  <si>
+    <t>Probando listado de planillas por empresa.</t>
+  </si>
+  <si>
+    <t>Registro de Nuevo cargo en el formulario empleado.</t>
   </si>
 </sst>
 </file>
@@ -985,25 +997,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1138,8 +1150,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H16" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H16" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H17" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H17" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -1465,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1892,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,13 +2113,47 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="A16" s="37">
+        <v>44081</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44082</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44083</v>
+      </c>
+      <c r="D16" s="37">
+        <v>44084</v>
+      </c>
+      <c r="E16" s="37">
+        <v>44085</v>
+      </c>
+      <c r="F16" s="37">
+        <v>44086</v>
+      </c>
+      <c r="G16" s="37">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="42" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9AFE4F-AAC2-4D0A-9132-A01A0A13F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC1603-0CF4-478E-9F4B-708397D76BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -997,25 +997,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1906,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC1603-0CF4-478E-9F4B-708397D76BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4A6BB-99E2-4341-A2C7-8D29DAE7BF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -664,13 +664,55 @@
   </si>
   <si>
     <t>Registro de Nuevo cargo en el formulario empleado.</t>
+  </si>
+  <si>
+    <t>Corregir Diseño principal, formulario contenedor, enlazar registros para el formulario principal</t>
+  </si>
+  <si>
+    <r>
+      <t>formulario Comisiones AFP, Diseñar y funcion para registrar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en prueba</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">formulario Comisiones AFP, Insercion Masiva </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Concluido, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se creo metodos para poder mostrar Regimen Pensionario SPP</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +852,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1150,8 +1205,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H17" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H17" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H19" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H19" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -1904,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,6 +2208,47 @@
       <c r="G17" s="40"/>
       <c r="H17" s="42" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>44088</v>
+      </c>
+      <c r="B18" s="37">
+        <v>44089</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44090</v>
+      </c>
+      <c r="D18" s="37">
+        <v>44091</v>
+      </c>
+      <c r="E18" s="37">
+        <v>44092</v>
+      </c>
+      <c r="F18" s="37">
+        <v>44093</v>
+      </c>
+      <c r="G18" s="37">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC1603-0CF4-478E-9F4B-708397D76BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D202E4-8365-485A-A57A-B03FADD0C3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -664,13 +664,61 @@
   </si>
   <si>
     <t>Registro de Nuevo cargo en el formulario empleado.</t>
+  </si>
+  <si>
+    <t>Corregir Diseño principal, formulario contenedor, enlazar registros para el formulario principal</t>
+  </si>
+  <si>
+    <r>
+      <t>formulario Comisiones AFP, Diseñar y funcion para registrar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en prueba</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">formulario Comisiones AFP, Insercion Masiva </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Concluido, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se creo metodos para poder mostrar Regimen Pensionario SPP</t>
+    </r>
+  </si>
+  <si>
+    <t>Error perdida de datos en sincronizacion del repositorio, se tuvo que corregir de nuevo Diseño principal.</t>
+  </si>
+  <si>
+    <t>Analisis de formato para diseño de calculo planilla para poder iniciar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +858,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -846,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,6 +1021,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,8 +1219,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H17" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H17" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H19" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H19" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -1904,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,6 +2222,52 @@
       <c r="G17" s="40"/>
       <c r="H17" s="42" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>44088</v>
+      </c>
+      <c r="B18" s="43">
+        <v>44089</v>
+      </c>
+      <c r="C18" s="43">
+        <v>44090</v>
+      </c>
+      <c r="D18" s="43">
+        <v>44091</v>
+      </c>
+      <c r="E18" s="43">
+        <v>44092</v>
+      </c>
+      <c r="F18" s="43">
+        <v>44093</v>
+      </c>
+      <c r="G18" s="43">
+        <v>44094</v>
+      </c>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="33" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D202E4-8365-485A-A57A-B03FADD0C3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1C82F-AEDD-44FC-8B6F-C6A3779172F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -712,12 +712,27 @@
   </si>
   <si>
     <t>Analisis de formato para diseño de calculo planilla para poder iniciar.</t>
+  </si>
+  <si>
+    <t>Correcion de formulario planilla para ingresar fecha de inicio y final del empleado.</t>
+  </si>
+  <si>
+    <t>Enlazar API Ruc al formulario empresa para consultar una empresa y autcompletar los datos.</t>
+  </si>
+  <si>
+    <t>Diseño del formulario regimen de salud y desarrollo de funcionalidad ingreso y modificacion de datos.</t>
+  </si>
+  <si>
+    <t>Listado de regimen de salud en el formulario empleado según el codigo especificado en la SUNAT.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1029,75 +1044,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1118,6 +1106,37 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1219,16 +1238,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H19" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H19" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{C51D3758-B97A-4E03-B404-E72F7D39CC77}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1239,9 +1258,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D28" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1973,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,6 +2288,60 @@
       <c r="H19" s="33" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>44088</v>
+      </c>
+      <c r="B20" s="43">
+        <v>44089</v>
+      </c>
+      <c r="C20" s="43">
+        <v>44090</v>
+      </c>
+      <c r="D20" s="43">
+        <v>44091</v>
+      </c>
+      <c r="E20" s="43">
+        <v>44092</v>
+      </c>
+      <c r="F20" s="43">
+        <v>44093</v>
+      </c>
+      <c r="G20" s="43">
+        <v>44094</v>
+      </c>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1C82F-AEDD-44FC-8B6F-C6A3779172F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9973C476-2C9C-4DE7-8C3A-FC991AB9112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="132">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -724,6 +724,15 @@
   </si>
   <si>
     <t>Listado de regimen de salud en el formulario empleado según el codigo especificado en la SUNAT.</t>
+  </si>
+  <si>
+    <t>Validar formulario empleado</t>
+  </si>
+  <si>
+    <t>Validar mes en planilla</t>
+  </si>
+  <si>
+    <t>Validacion del listado de año por planilla</t>
   </si>
 </sst>
 </file>
@@ -733,7 +742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +895,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -922,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1048,11 +1064,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
@@ -1076,16 +1126,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1106,37 +1156,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1238,16 +1257,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{C51D3758-B97A-4E03-B404-E72F7D39CC77}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1255,12 +1274,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D28" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D31" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1994,7 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2354,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,6 +2689,36 @@
       <c r="D28" s="15" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9973C476-2C9C-4DE7-8C3A-FC991AB9112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD037B5-3E1A-4B4F-9052-500D3C7A43AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,7 +2376,7 @@
   <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,10 +2715,10 @@
       <c r="A31" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="49"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD037B5-3E1A-4B4F-9052-500D3C7A43AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9410D08B-37A6-49A8-8B26-D877FFF92654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -733,6 +733,27 @@
   </si>
   <si>
     <t>Validacion del listado de año por planilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta de fuentes para el diseño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba de diseño del formulario planillas principal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datagridview para la edicion de campos en planilla </t>
+  </si>
+  <si>
+    <t>Correccion de error listado por empresas y año</t>
+  </si>
+  <si>
+    <t>Diseño del formulario de calculos de planilla mensual</t>
+  </si>
+  <si>
+    <t>Pruebas del calculo en el formulario planilla mensual: horas extra diurna y nocturna</t>
+  </si>
+  <si>
+    <t>Pruebas del formulario de calculos para listar empleados por DNI registrado</t>
   </si>
 </sst>
 </file>
@@ -938,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1066,6 +1087,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,8 +1281,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H25" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H25" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
@@ -2011,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,14 +2377,94 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="A22" s="50">
+        <v>44095</v>
+      </c>
+      <c r="B22" s="50">
+        <v>44096</v>
+      </c>
+      <c r="C22" s="50">
+        <v>44097</v>
+      </c>
+      <c r="D22" s="50">
+        <v>44098</v>
+      </c>
+      <c r="E22" s="50">
+        <v>44099</v>
+      </c>
+      <c r="F22" s="50">
+        <v>44100</v>
+      </c>
+      <c r="G22" s="50">
+        <v>44101</v>
+      </c>
       <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="50">
+        <v>44095</v>
+      </c>
+      <c r="B24" s="50">
+        <v>44096</v>
+      </c>
+      <c r="C24" s="50">
+        <v>44097</v>
+      </c>
+      <c r="D24" s="50">
+        <v>44098</v>
+      </c>
+      <c r="E24" s="50">
+        <v>44099</v>
+      </c>
+      <c r="F24" s="50">
+        <v>44100</v>
+      </c>
+      <c r="G24" s="50">
+        <v>44101</v>
+      </c>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2375,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9410D08B-37A6-49A8-8B26-D877FFF92654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F262A12-E835-4154-AE82-87A4108FD183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
     <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
-    <sheet name="PENDIENTES" sheetId="2" r:id="rId3"/>
-    <sheet name="PATRON" sheetId="3" r:id="rId4"/>
-    <sheet name="Error" sheetId="6" r:id="rId5"/>
+    <sheet name="INFORME OCTUBRE" sheetId="7" r:id="rId3"/>
+    <sheet name="PENDIENTES" sheetId="2" r:id="rId4"/>
+    <sheet name="PATRON" sheetId="3" r:id="rId5"/>
+    <sheet name="Error" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'INFORME AGOSTO'!$A$1:$H$27</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -754,6 +755,18 @@
   </si>
   <si>
     <t>Pruebas del formulario de calculos para listar empleados por DNI registrado</t>
+  </si>
+  <si>
+    <t>Calculo de las horas extras diurnas y nocturnas. El importe cambia dinamicamente al cambiar las horas y minutos.</t>
+  </si>
+  <si>
+    <t>Creacion del procedimiento almacenado para listar subsidios. Creacion del formulario Listado de Subsidios.</t>
+  </si>
+  <si>
+    <t>Ceacion del formulario de registro de dias subsidiados. Se creo la conexión con el formulario de planillas.</t>
+  </si>
+  <si>
+    <t>Creacion de la tabla subsidios con el atributo codigo de subsidio tal y como esta en el PDT PLAME.</t>
   </si>
 </sst>
 </file>
@@ -938,7 +951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -955,11 +968,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1090,6 +1118,43 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2037,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE52260-A7A4-4760-815C-05D6289EA23F}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,10 +2541,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191F0166-AF99-4595-8163-79C318DDC6AF}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="52">
+        <v>44102</v>
+      </c>
+      <c r="B2" s="52">
+        <v>44103</v>
+      </c>
+      <c r="C2" s="52">
+        <v>44104</v>
+      </c>
+      <c r="D2" s="52">
+        <v>44105</v>
+      </c>
+      <c r="E2" s="52">
+        <v>44106</v>
+      </c>
+      <c r="F2" s="52">
+        <v>44107</v>
+      </c>
+      <c r="G2" s="52">
+        <v>44108</v>
+      </c>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>44102</v>
+      </c>
+      <c r="B4" s="52">
+        <v>44103</v>
+      </c>
+      <c r="C4" s="52">
+        <v>44104</v>
+      </c>
+      <c r="D4" s="52">
+        <v>44105</v>
+      </c>
+      <c r="E4" s="52">
+        <v>44106</v>
+      </c>
+      <c r="F4" s="52">
+        <v>44107</v>
+      </c>
+      <c r="G4" s="52">
+        <v>44108</v>
+      </c>
+      <c r="H4" s="57"/>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2810,10 +3006,10 @@
       <c r="A30" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="49"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2833,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2849,7 +3045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8302B75-CA61-4823-A356-B6EB99D8917F}">
   <dimension ref="B2:B7"/>
   <sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9973C476-2C9C-4DE7-8C3A-FC991AB9112C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43248E23-2FB5-4DA5-8A04-5F7AC75C6662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
     <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
-    <sheet name="PENDIENTES" sheetId="2" r:id="rId3"/>
-    <sheet name="PATRON" sheetId="3" r:id="rId4"/>
-    <sheet name="Error" sheetId="6" r:id="rId5"/>
+    <sheet name="INFORME OCTUBRE" sheetId="7" r:id="rId3"/>
+    <sheet name="PENDIENTES" sheetId="2" r:id="rId4"/>
+    <sheet name="PATRON" sheetId="3" r:id="rId5"/>
+    <sheet name="Error" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'INFORME AGOSTO'!$A$1:$H$27</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -734,14 +735,29 @@
   <si>
     <t>Validacion del listado de año por planilla</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Asignar propiedades a la tabla de C# para los valores que asiganamos.</t>
+  </si>
+  <si>
+    <t>Analis de calculo, inicio de pruebas.</t>
+  </si>
+  <si>
+    <t>Validar Variables de codigo para calculo.</t>
+  </si>
+  <si>
+    <t>Calculo Horas Extras Nocturnas.(hr, min, monto)</t>
+  </si>
+  <si>
+    <t>Calculo Horas Extras Diurnas.(hr, min, monto), Creacion de Clase para calculo.</t>
+  </si>
+  <si>
+    <t>Implementar Metodo y validaciones para la las horas extras, (horas extras  diurnas y  nocturnas)ok.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1060,10 +1076,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,7 +1087,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1104,25 +1174,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1240,7 +1310,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A10:H27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
@@ -1257,16 +1327,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="13"/>
     <tableColumn id="8" xr3:uid="{C51D3758-B97A-4E03-B404-E72F7D39CC77}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1274,12 +1344,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H21" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8CC4D981-27D4-4E4F-9AC3-11CB7C096EEF}" name="MIÉRCOLES" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BA7535F5-C99F-4699-9028-08DC89F6C4B9}" name="JUEVES" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{037149CF-875B-4884-80F5-8D6756F292C9}" name="VIERNES" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E1786BD5-7D4B-4CC1-9CF9-55A6890ED160}" name="SÁBADO" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{415CB197-C16B-4996-912D-D31D3D9A21E0}" name="DOMINGO" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{83EDBEE9-3894-4F87-A0C6-238778E933C3}" name="DEVELOPER"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D31" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2014,7 +2101,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,11 +2459,257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>44102</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44103</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44104</v>
+      </c>
+      <c r="D10" s="37">
+        <v>44105</v>
+      </c>
+      <c r="E10" s="37">
+        <v>44106</v>
+      </c>
+      <c r="F10" s="37">
+        <v>44107</v>
+      </c>
+      <c r="G10" s="37">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>44109</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44110</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44111</v>
+      </c>
+      <c r="D12" s="37">
+        <v>44112</v>
+      </c>
+      <c r="E12" s="37">
+        <v>44113</v>
+      </c>
+      <c r="F12" s="37">
+        <v>44114</v>
+      </c>
+      <c r="G12" s="37">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,11 +3062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -2745,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8302B75-CA61-4823-A356-B6EB99D8917F}">
   <dimension ref="B2:B7"/>
   <sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F262A12-E835-4154-AE82-87A4108FD183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444918E4-56E8-4C42-9034-693CEB08F91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -767,6 +767,24 @@
   </si>
   <si>
     <t>Creacion de la tabla subsidios con el atributo codigo de subsidio tal y como esta en el PDT PLAME.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asignar propiedades a la tabla de C# para los valores que asiganamos.</t>
+  </si>
+  <si>
+    <t>Analis de calculo, inicio de pruebas.</t>
+  </si>
+  <si>
+    <t>Validar Variables de codigo para calculo.</t>
+  </si>
+  <si>
+    <t>Calculo Horas Extras Diurnas.(hr, min, monto), Creacion de Clase para calculo.</t>
+  </si>
+  <si>
+    <t>Calculo Horas Extras Nocturnas.(hr, min, monto)</t>
+  </si>
+  <si>
+    <t>Implementar Metodo y validaciones para la las horas extras, (horas extras  diurnas y  nocturnas)ok.</t>
   </si>
 </sst>
 </file>
@@ -894,6 +912,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,6 +953,7 @@
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1129,9 +1149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,6 +1172,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,7 +2565,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,14 +2631,26 @@
       <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56" t="s">
+      <c r="A3" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2644,25 +2676,25 @@
       <c r="G4" s="52">
         <v>44108</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59" t="s">
         <v>101</v>
       </c>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43248E23-2FB5-4DA5-8A04-5F7AC75C6662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA4B352-C487-4010-930E-6E5E524E8558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -752,6 +752,24 @@
   </si>
   <si>
     <t>Implementar Metodo y validaciones para la las horas extras, (horas extras  diurnas y  nocturnas)ok.</t>
+  </si>
+  <si>
+    <t>Calculo total horas extras, total remuneracion, feriados.</t>
+  </si>
+  <si>
+    <t>Validacion de calculo, y Tardanzas.</t>
+  </si>
+  <si>
+    <t>sin luz</t>
+  </si>
+  <si>
+    <t>Revision y Modificacion</t>
+  </si>
+  <si>
+    <t>Implementar algoritmo para insertar y modificar de forma masiva</t>
+  </si>
+  <si>
+    <t>Implementar algoritmo para insertar y modificar de forma masiva (OK), pero falta pruebas.</t>
   </si>
 </sst>
 </file>
@@ -954,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1082,66 +1100,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1172,6 +1139,60 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
@@ -1344,16 +1365,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H21" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H21" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8CC4D981-27D4-4E4F-9AC3-11CB7C096EEF}" name="MIÉRCOLES" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BA7535F5-C99F-4699-9028-08DC89F6C4B9}" name="JUEVES" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{037149CF-875B-4884-80F5-8D6756F292C9}" name="VIERNES" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E1786BD5-7D4B-4CC1-9CF9-55A6890ED160}" name="SÁBADO" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{415CB197-C16B-4996-912D-D31D3D9A21E0}" name="DOMINGO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8CC4D981-27D4-4E4F-9AC3-11CB7C096EEF}" name="MIÉRCOLES" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BA7535F5-C99F-4699-9028-08DC89F6C4B9}" name="JUEVES" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{037149CF-875B-4884-80F5-8D6756F292C9}" name="VIERNES" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E1786BD5-7D4B-4CC1-9CF9-55A6890ED160}" name="SÁBADO" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{415CB197-C16B-4996-912D-D31D3D9A21E0}" name="DOMINGO" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{83EDBEE9-3894-4F87-A0C6-238778E933C3}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1364,9 +1385,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D31" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1671,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2101,7 +2122,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +2592,9 @@
         <v>137</v>
       </c>
       <c r="G11" s="40"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
@@ -2596,15 +2619,29 @@
         <v>44115</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>143</v>
+      </c>
       <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="39" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43248E23-2FB5-4DA5-8A04-5F7AC75C6662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765C181E-36C3-4225-9AED-DBEDA5F903F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -752,6 +752,24 @@
   </si>
   <si>
     <t>Implementar Metodo y validaciones para la las horas extras, (horas extras  diurnas y  nocturnas)ok.</t>
+  </si>
+  <si>
+    <t>Calculo total horas extras, total remuneracion, feriados.</t>
+  </si>
+  <si>
+    <t>Validacion de calculo, y Tardanzas.</t>
+  </si>
+  <si>
+    <t>sin luz</t>
+  </si>
+  <si>
+    <t>Revision y Modificacion</t>
+  </si>
+  <si>
+    <t>Implementar algoritmo para insertar y modificar de forma masiva</t>
+  </si>
+  <si>
+    <t>Implementar algoritmo para insertar y modificar de forma masiva (OK), pero falta pruebas.</t>
   </si>
 </sst>
 </file>
@@ -876,6 +894,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,6 +935,7 @@
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -954,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1082,66 +1102,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1172,6 +1141,60 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
@@ -1344,16 +1367,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H21" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H21" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8CC4D981-27D4-4E4F-9AC3-11CB7C096EEF}" name="MIÉRCOLES" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BA7535F5-C99F-4699-9028-08DC89F6C4B9}" name="JUEVES" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{037149CF-875B-4884-80F5-8D6756F292C9}" name="VIERNES" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E1786BD5-7D4B-4CC1-9CF9-55A6890ED160}" name="SÁBADO" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{415CB197-C16B-4996-912D-D31D3D9A21E0}" name="DOMINGO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8CC4D981-27D4-4E4F-9AC3-11CB7C096EEF}" name="MIÉRCOLES" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BA7535F5-C99F-4699-9028-08DC89F6C4B9}" name="JUEVES" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{037149CF-875B-4884-80F5-8D6756F292C9}" name="VIERNES" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E1786BD5-7D4B-4CC1-9CF9-55A6890ED160}" name="SÁBADO" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{415CB197-C16B-4996-912D-D31D3D9A21E0}" name="DOMINGO" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{83EDBEE9-3894-4F87-A0C6-238778E933C3}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1364,9 +1387,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D31" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2462,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,15 +2619,29 @@
         <v>44115</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>143</v>
+      </c>
       <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765C181E-36C3-4225-9AED-DBEDA5F903F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08345828-79B9-4A2E-9BCD-596DD9139169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="149">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -770,6 +770,21 @@
   </si>
   <si>
     <t>Implementar algoritmo para insertar y modificar de forma masiva (OK), pero falta pruebas.</t>
+  </si>
+  <si>
+    <t>Pruebas en Insercion Masiva en C#</t>
+  </si>
+  <si>
+    <t>Coordinar Cuadro Subsidios, detalles.</t>
+  </si>
+  <si>
+    <t>Funciones y condiciones para el calculo de la planilla En C#), se esta validando por empleado el Subsidio</t>
+  </si>
+  <si>
+    <t>Validaciones Pendientes, hay Errores.</t>
+  </si>
+  <si>
+    <t>Se creo otro formulario en C# de  Subsidio, para no alterar el que ya estaba creado con modificaciones, y se implemento algoritmo Pruebas inserción masiva y modificación masiva  (en formulario AFP) Funciono Correctamente. Lo mismo se insertara para registrar el calculo de la planilla mensual.</t>
   </si>
 </sst>
 </file>
@@ -2485,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2609,9 @@
         <v>137</v>
       </c>
       <c r="G11" s="40"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
@@ -2644,24 +2661,50 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="A14" s="37">
+        <v>44116</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44118</v>
+      </c>
+      <c r="D14" s="37">
+        <v>44119</v>
+      </c>
+      <c r="E14" s="37">
+        <v>44120</v>
+      </c>
+      <c r="F14" s="37">
+        <v>44121</v>
+      </c>
+      <c r="G14" s="37">
+        <v>44122</v>
+      </c>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+    <row r="15" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>148</v>
+      </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08345828-79B9-4A2E-9BCD-596DD9139169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC7319A-B44C-4CDF-AF3C-5EF97D516E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC7319A-B44C-4CDF-AF3C-5EF97D516E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD02241B-83BD-40D2-9CC8-3069B9212A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -785,6 +785,24 @@
   </si>
   <si>
     <t>Se creo otro formulario en C# de  Subsidio, para no alterar el que ya estaba creado con modificaciones, y se implemento algoritmo Pruebas inserción masiva y modificación masiva  (en formulario AFP) Funciono Correctamente. Lo mismo se insertara para registrar el calculo de la planilla mensual.</t>
+  </si>
+  <si>
+    <t>Tabla subsidos y detalle, en sqlserver(script de procedimientos (sp)para el mantenimiento)</t>
+  </si>
+  <si>
+    <t>Metodos de acceso(capa datos y negocio) metodos en C# para mantenimiento de subsidios</t>
+  </si>
+  <si>
+    <t>Formulario Calculo planilla(validar dias subsidiados y aplicar formula para el calculo)</t>
+  </si>
+  <si>
+    <t>Validacion subsidiados y no subsidiados en formulario calculo de planilla (mostrar datos según el tipo) en C#</t>
+  </si>
+  <si>
+    <t>Formulario subsidio(agregar, modificar y eliminar) sumas de dias subsidiados por tipo. En C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se valido codigo subsidios(supension perfecta y suspension imperfecta) para mostrar los dias en casillas de formulario calculo planilla) </t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2519,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,32 +2725,75 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="40"/>
+      <c r="A16" s="37">
+        <v>44123</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44124</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44125</v>
+      </c>
+      <c r="D16" s="37">
+        <v>44126</v>
+      </c>
+      <c r="E16" s="37">
+        <v>44127</v>
+      </c>
+      <c r="F16" s="37">
+        <v>44128</v>
+      </c>
+      <c r="G16" s="37">
+        <v>44129</v>
+      </c>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>154</v>
+      </c>
       <c r="G17" s="40"/>
-      <c r="H17" s="42"/>
+      <c r="H17" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="A18" s="43">
+        <v>44130</v>
+      </c>
+      <c r="B18" s="43">
+        <v>44131</v>
+      </c>
+      <c r="C18" s="43">
+        <v>44132</v>
+      </c>
+      <c r="D18" s="43">
+        <v>44133</v>
+      </c>
+      <c r="E18" s="43">
+        <v>44134</v>
+      </c>
+      <c r="F18" s="43">
+        <v>44135</v>
+      </c>
+      <c r="G18" s="43">
+        <v>44136</v>
+      </c>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3146,7 +3207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD02241B-83BD-40D2-9CC8-3069B9212A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A257881C-47F4-4E83-9479-CF2F209D01AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -803,6 +803,18 @@
   </si>
   <si>
     <t xml:space="preserve">Se valido codigo subsidios(supension perfecta y suspension imperfecta) para mostrar los dias en casillas de formulario calculo planilla) </t>
+  </si>
+  <si>
+    <t>JUAN FLORES MECA</t>
+  </si>
+  <si>
+    <t>Validacion de calculos de horas 25% y 35%</t>
+  </si>
+  <si>
+    <t>Interfaz de tardanzas y validacion de calculos de bonificacion noturna.</t>
+  </si>
+  <si>
+    <t>Optimizacion de procedimientos almacenados para reducir el codigo en el proyecto.</t>
   </si>
 </sst>
 </file>
@@ -1176,25 +1188,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1230,25 +1242,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1400,8 +1412,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H21" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H23" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H23" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2516,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,47 +2785,71 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="37">
+        <v>44123</v>
+      </c>
+      <c r="B18" s="37">
+        <v>44124</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44125</v>
+      </c>
+      <c r="D18" s="37">
+        <v>44126</v>
+      </c>
+      <c r="E18" s="37">
+        <v>44127</v>
+      </c>
+      <c r="F18" s="37">
+        <v>44128</v>
+      </c>
+      <c r="G18" s="37">
+        <v>44129</v>
+      </c>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
         <v>44130</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B20" s="43">
         <v>44131</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C20" s="43">
         <v>44132</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D20" s="43">
         <v>44133</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E20" s="43">
         <v>44134</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F20" s="43">
         <v>44135</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G20" s="43">
         <v>44136</v>
       </c>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2821,20 +2857,40 @@
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="47"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="33"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A257881C-47F4-4E83-9479-CF2F209D01AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B0E530-62C1-41F6-829D-3C89713B5989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -815,6 +815,18 @@
   </si>
   <si>
     <t>Optimizacion de procedimientos almacenados para reducir el codigo en el proyecto.</t>
+  </si>
+  <si>
+    <t>Separar y calcular dias de subsidios(de S.P. Y S.I.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculo y validación de Total Remuneración </t>
+  </si>
+  <si>
+    <t>Probar Recuperacion de Datos de SQLSERVER EN  formularios planilla para mostrar el sueldo basico y validar para enviar el datos y calcular las sumas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se implemento en el formulario calculo(codigo contrato, codigo planilla, dias dominicales y horas diarias trabajadas) se valido para que ingrese dias y calcule las horas diarias trabajas </t>
   </si>
 </sst>
 </file>
@@ -1188,25 +1200,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1242,25 +1254,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2530,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2651,7 @@
         <v>137</v>
       </c>
       <c r="G11" s="40"/>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2732,7 +2744,7 @@
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2852,11 +2864,19 @@
       </c>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+    <row r="21" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="E21" s="48"/>
       <c r="F21" s="47"/>
       <c r="G21" s="48"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B0E530-62C1-41F6-829D-3C89713B5989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D60FA88-55D5-464F-B584-AB2573782CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -827,6 +827,12 @@
   </si>
   <si>
     <t xml:space="preserve">Se implemento en el formulario calculo(codigo contrato, codigo planilla, dias dominicales y horas diarias trabajadas) se valido para que ingrese dias y calcule las horas diarias trabajas </t>
+  </si>
+  <si>
+    <t>Se creo tabla planilla y todos sus atributos en LA BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>Algoritmo para Recuperar Registro de planilla y Mostrar en el formulario planilla calculo validando los  numeros ceros con null.</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2549,7 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,8 +2883,12 @@
       <c r="D21" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>164</v>
+      </c>
       <c r="G21" s="48"/>
       <c r="H21" s="33"/>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B0E530-62C1-41F6-829D-3C89713B5989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C8A28-F78F-4CC4-9417-A387033E6AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="165">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -827,6 +827,12 @@
   </si>
   <si>
     <t xml:space="preserve">Se implemento en el formulario calculo(codigo contrato, codigo planilla, dias dominicales y horas diarias trabajadas) se valido para que ingrese dias y calcule las horas diarias trabajas </t>
+  </si>
+  <si>
+    <t>Se creo tabla planilla y todos sus atributos en LA BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>Algoritmo para Recuperar Registro de planilla y Mostrar en el formulario planilla calculo validando los  numeros ceros con null.</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1162,6 +1168,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2543,7 +2552,7 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,10 +2886,16 @@
       <c r="D21" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>164</v>
+      </c>
       <c r="G21" s="48"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="51" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C8A28-F78F-4CC4-9417-A387033E6AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C381A8-8B35-4B18-9BA8-9F5184AEB412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="168">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -834,11 +834,23 @@
   <si>
     <t>Algoritmo para Recuperar Registro de planilla y Mostrar en el formulario planilla calculo validando los  numeros ceros con null.</t>
   </si>
+  <si>
+    <t xml:space="preserve">creacion del formulario de mantenimiento de subsidios </t>
+  </si>
+  <si>
+    <t>Agregar parameto de codigo de documento según el PDT PLAME</t>
+  </si>
+  <si>
+    <t>creacion de procedimientos almacenados para el mantenimienot de subsidios.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1172,6 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,25 +1222,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1263,25 +1276,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2551,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,24 +2911,46 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="A22" s="43">
+        <v>44130</v>
+      </c>
+      <c r="B22" s="43">
+        <v>44131</v>
+      </c>
+      <c r="C22" s="43">
+        <v>44132</v>
+      </c>
+      <c r="D22" s="43">
+        <v>44133</v>
+      </c>
+      <c r="E22" s="43">
+        <v>44134</v>
+      </c>
+      <c r="F22" s="43">
+        <v>44135</v>
+      </c>
+      <c r="G22" s="43">
+        <v>44136</v>
+      </c>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>166</v>
+      </c>
       <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="52"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="21" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C381A8-8B35-4B18-9BA8-9F5184AEB412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263007B-A7BA-4BFD-8C9D-230FFDA7D677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -843,14 +843,23 @@
   <si>
     <t>creacion de procedimientos almacenados para el mantenimienot de subsidios.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Formulario Calculo( metodos para mostrar empleados ), modificacion tablas en SQLSERVER y codigo en C#(tipo de documento, contrato, regimen salud) </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Modificacion formulario calculo( diseño de agregar y quitar conceptos de la tabla calculo), Cambiar diseño  de calculo de planilla y inicio de sesion( según acordado)</t>
+  </si>
+  <si>
+    <t>diseño inicio de sesion y revision de codigo en SQLSERVER (se borro los procedimientos que ya no se usaran.(según acordado)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1049,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1184,7 +1193,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,25 +1234,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1276,25 +1288,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1446,8 +1458,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H23" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H23" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H26" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H26" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2562,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,14 +2965,59 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="33"/>
+      <c r="A24" s="43">
+        <v>44137</v>
+      </c>
+      <c r="B24" s="43">
+        <v>44138</v>
+      </c>
+      <c r="C24" s="43">
+        <v>44139</v>
+      </c>
+      <c r="D24" s="43">
+        <v>44140</v>
+      </c>
+      <c r="E24" s="43">
+        <v>44141</v>
+      </c>
+      <c r="F24" s="43">
+        <v>44142</v>
+      </c>
+      <c r="G24" s="43">
+        <v>44143</v>
+      </c>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263007B-A7BA-4BFD-8C9D-230FFDA7D677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D625ED1-F443-449A-B460-3B2A54469B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="175">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -854,6 +854,15 @@
   </si>
   <si>
     <t>diseño inicio de sesion y revision de codigo en SQLSERVER (se borro los procedimientos que ya no se usaran.(según acordado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificacion del formulario Banco para ingresar datos directamente desde el datagriedview. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificacion del formulario Tipo Contrato para ingresar datos directamente desde el datagriedview. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creacion del formulario subsidios con sus repectivos procedimientos almacenados. </t>
   </si>
 </sst>
 </file>
@@ -1234,25 +1243,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1288,25 +1297,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1458,8 +1467,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H26" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H26" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H27" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H27" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2574,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,13 +3020,48 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="A26" s="43">
+        <v>44137</v>
+      </c>
+      <c r="B26" s="43">
+        <v>44138</v>
+      </c>
+      <c r="C26" s="43">
+        <v>44139</v>
+      </c>
+      <c r="D26" s="43">
+        <v>44140</v>
+      </c>
+      <c r="E26" s="43">
+        <v>44141</v>
+      </c>
+      <c r="F26" s="43">
+        <v>44142</v>
+      </c>
+      <c r="G26" s="43">
+        <v>44143</v>
+      </c>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D625ED1-F443-449A-B460-3B2A54469B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C697581-4FF7-48F1-BAE2-1AAD3B9A7408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
     <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
-    <sheet name="INFORME OCTUBRE" sheetId="7" r:id="rId3"/>
+    <sheet name="INFORME OCTUBRE Y NOVIEMBRE" sheetId="7" r:id="rId3"/>
     <sheet name="PENDIENTES" sheetId="2" r:id="rId4"/>
     <sheet name="PATRON" sheetId="3" r:id="rId5"/>
     <sheet name="Error" sheetId="6" r:id="rId6"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -863,6 +863,15 @@
   </si>
   <si>
     <t xml:space="preserve">Creacion del formulario subsidios con sus repectivos procedimientos almacenados. </t>
+  </si>
+  <si>
+    <t>Modificacion el codigo en sql y C# de empresa, sucursal, vista usuario, vista empresa</t>
+  </si>
+  <si>
+    <t>Modificar codigo y diseño en  sql y C# de formulario crear planilla y relaciones.</t>
+  </si>
+  <si>
+    <t>Modificacion codigo y diseño formulario documento, cargo, usuario, tambien se agrego nuevas columna en usurio y alterar todo el procedimiento en sql</t>
   </si>
 </sst>
 </file>
@@ -1243,25 +1252,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1297,25 +1306,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1467,8 +1476,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H27" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H27" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H29" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H29" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2583,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,6 +3070,48 @@
       <c r="G27" s="52"/>
       <c r="H27" s="53" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>44144</v>
+      </c>
+      <c r="B28" s="43">
+        <v>44145</v>
+      </c>
+      <c r="C28" s="43">
+        <v>44146</v>
+      </c>
+      <c r="D28" s="43">
+        <v>44147</v>
+      </c>
+      <c r="E28" s="43">
+        <v>44148</v>
+      </c>
+      <c r="F28" s="43">
+        <v>44149</v>
+      </c>
+      <c r="G28" s="43">
+        <v>44150</v>
+      </c>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C697581-4FF7-48F1-BAE2-1AAD3B9A7408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFEE32-BAC8-4563-B6D1-91C589B600D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -872,6 +872,15 @@
   </si>
   <si>
     <t>Modificacion codigo y diseño formulario documento, cargo, usuario, tambien se agrego nuevas columna en usurio y alterar todo el procedimiento en sql</t>
+  </si>
+  <si>
+    <t>Tabla Mantenimiento de conceptos para la planilla en sql y su diseño en C# aun falta su codigo para el proceso en C#.</t>
+  </si>
+  <si>
+    <t>Campos en planilla(otros reintegros, prestacion alimentaria, recargo consumo, grati extra. Fiestas y navidad)</t>
+  </si>
+  <si>
+    <t>Dias Vacaciones (separar los dias con validaciones en tabla  no subsidios no laborados, para su calculo respectivo. Calculo montos por trabajador(ONP, Y COMISIONES, SEGUROS, APORTES  DE AFP)</t>
   </si>
 </sst>
 </file>
@@ -2594,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,7 +3105,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>175</v>
       </c>
@@ -3106,9 +3115,15 @@
       <c r="C29" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
+      <c r="D29" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>180</v>
+      </c>
       <c r="G29" s="52"/>
       <c r="H29" s="17" t="s">
         <v>15</v>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFEE32-BAC8-4563-B6D1-91C589B600D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A2701F-7885-41EC-842D-2531F16B2293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2604,7 +2604,7 @@
   <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A2701F-7885-41EC-842D-2531F16B2293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9E609-6CB6-4EAA-9F7D-5D9521D4B3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -881,6 +881,15 @@
   </si>
   <si>
     <t>Dias Vacaciones (separar los dias con validaciones en tabla  no subsidios no laborados, para su calculo respectivo. Calculo montos por trabajador(ONP, Y COMISIONES, SEGUROS, APORTES  DE AFP)</t>
+  </si>
+  <si>
+    <t>Verificacion de errores en los formulario cargo, empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificacion de los procedimientos almacenados para optimizar el registro y mantenimiento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de subsidios completo con registro, modificacion y eliminacion. </t>
   </si>
 </sst>
 </file>
@@ -1261,25 +1270,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1315,25 +1324,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1485,8 +1494,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H29" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H29" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H31" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H31" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2601,16 +2610,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3105,29 +3114,83 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>175</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>178</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G29" s="52"/>
       <c r="H29" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>44144</v>
+      </c>
+      <c r="B30" s="43">
+        <v>44145</v>
+      </c>
+      <c r="C30" s="43">
+        <v>44146</v>
+      </c>
+      <c r="D30" s="43">
+        <v>44147</v>
+      </c>
+      <c r="E30" s="43">
+        <v>44148</v>
+      </c>
+      <c r="F30" s="43">
+        <v>44149</v>
+      </c>
+      <c r="G30" s="43">
+        <v>44150</v>
+      </c>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="17" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9E609-6CB6-4EAA-9F7D-5D9521D4B3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2FFCD-A349-4B0D-B001-A632B4E49CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="187">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -883,13 +883,34 @@
     <t>Dias Vacaciones (separar los dias con validaciones en tabla  no subsidios no laborados, para su calculo respectivo. Calculo montos por trabajador(ONP, Y COMISIONES, SEGUROS, APORTES  DE AFP)</t>
   </si>
   <si>
-    <t>Verificacion de errores en los formulario cargo, empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificacion de los procedimientos almacenados para optimizar el registro y mantenimiento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de subsidios completo con registro, modificacion y eliminacion. </t>
+    <t>Validar los controles  CHECKBOX para al hacer cuando hacemos click  ocultemos  los campos de la planilla, metodo para cada campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimiento almacenado Registrar o Actualizar segun caso en SQL, Metodos set and get en C# para comunicar los parametros, clases(Dconcepto, Rconcepto, Nconcepto) </t>
+  </si>
+  <si>
+    <t>nombre a los Controles CHECKBOX, para su validacion  con diseño completado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Procedo registrar y pruebas tabla Conceptos en C#, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error faltal al sincronizar  en el proyecto(se tuvo que hacer los cambios ya avazados desde el lunes</t>
+    </r>
+  </si>
+  <si>
+    <t>se modifico algoritmo calculo(ya que fue alterado al agreagar nuevos campos a la planilla), se agrego los nuevos campos a la tabla en la Base de datos. Se calculo aporte a O.N.P Y A.F.P , por cada trabajador</t>
+  </si>
+  <si>
+    <t>formulario crear planilla y planilla calculo(se unieron y muestra los datos necesarios al seleccionar por periodo ok.</t>
   </si>
 </sst>
 </file>
@@ -1270,25 +1291,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1324,25 +1345,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2610,16 +2631,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3114,83 +3135,77 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>175</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+        <v>176</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="E29" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G29" s="52"/>
       <c r="H29" s="17" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="B30" s="43">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C30" s="43">
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="D30" s="43">
-        <v>44147</v>
+        <v>44154</v>
       </c>
       <c r="E30" s="43">
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="F30" s="43">
-        <v>44149</v>
+        <v>44156</v>
       </c>
       <c r="G30" s="43">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2FFCD-A349-4B0D-B001-A632B4E49CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2678C4B3-FD33-4978-B4EA-1BC7286F1F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="191">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -912,11 +912,26 @@
   <si>
     <t>formulario crear planilla y planilla calculo(se unieron y muestra los datos necesarios al seleccionar por periodo ok.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Validacion de formularios implementando error provider. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño y mejora del formulario planilla para unirlo al formulario calculo. </t>
+  </si>
+  <si>
+    <t>Procedimiento almacenado para mantenimiento de planilla.</t>
+  </si>
+  <si>
+    <t>Iniciando reportes con ReportViewer. Descargando e instalando los complementos necesarios.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1115,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1253,6 +1268,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,25 +1309,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1345,25 +1363,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1515,8 +1533,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H31" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H31" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H33" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H33" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2631,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,28 +3201,72 @@
       </c>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>181</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B31" s="38"/>
       <c r="C31" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>184</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>190</v>
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="17" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>44151</v>
+      </c>
+      <c r="B32" s="43">
+        <v>44152</v>
+      </c>
+      <c r="C32" s="43">
+        <v>44153</v>
+      </c>
+      <c r="D32" s="43">
+        <v>44154</v>
+      </c>
+      <c r="E32" s="43">
+        <v>44155</v>
+      </c>
+      <c r="F32" s="43">
+        <v>44156</v>
+      </c>
+      <c r="G32" s="43">
+        <v>44157</v>
+      </c>
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2678C4B3-FD33-4978-B4EA-1BC7286F1F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB38E55D-B5E2-4AA3-B8C9-C296D1974832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2652,7 +2652,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="17" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="G33" s="52"/>
       <c r="H33" s="17" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2678C4B3-FD33-4978-B4EA-1BC7286F1F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9073A-EF86-416D-B775-BFF26CE61F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -929,9 +929,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1269,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,25 +1306,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1363,25 +1360,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2652,7 +2649,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,7 +3215,7 @@
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="17" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,7 +3263,7 @@
       </c>
       <c r="G33" s="52"/>
       <c r="H33" s="17" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9073A-EF86-416D-B775-BFF26CE61F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A5614E-1124-4DCC-A702-5DE385E68797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -923,6 +923,9 @@
   </si>
   <si>
     <t>Iniciando reportes con ReportViewer. Descargando e instalando los complementos necesarios.</t>
+  </si>
+  <si>
+    <t>Modificacion a empleado se agrego Jornada laboral(part-time y full-time), en C# y SQL, se creo procedimiento ANULAR empleado con validacion(en SQL Y c#).</t>
   </si>
 </sst>
 </file>
@@ -1530,8 +1533,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H33" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H33" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H35" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2646,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,6 +3266,44 @@
       </c>
       <c r="G33" s="52"/>
       <c r="H33" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
+        <v>44158</v>
+      </c>
+      <c r="B34" s="43">
+        <v>44159</v>
+      </c>
+      <c r="C34" s="43">
+        <v>44160</v>
+      </c>
+      <c r="D34" s="43">
+        <v>44161</v>
+      </c>
+      <c r="E34" s="43">
+        <v>44162</v>
+      </c>
+      <c r="F34" s="43">
+        <v>44163</v>
+      </c>
+      <c r="G34" s="43">
+        <v>44164</v>
+      </c>
+      <c r="H34" s="44"/>
+    </row>
+    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" t="s">
         <v>15</v>
       </c>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A5614E-1124-4DCC-A702-5DE385E68797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F12CE8-8408-4221-B77D-FB171CF9E2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -926,6 +926,44 @@
   </si>
   <si>
     <t>Modificacion a empleado se agrego Jornada laboral(part-time y full-time), en C# y SQL, se creo procedimiento ANULAR empleado con validacion(en SQL Y c#).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En formulario crear planilla se implento codigo (validar meses repetidos), se cambio todo el diseño de inicio de sesion(se agrego ROL para ser validado, y se modifico el procedimiento en SQL que hace referencia al LOGIN, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aun falta codigo para iniciar sesion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>Planilla de calculo(se agrego un campo para poder validar el Part - Time, cambio en el procedimiento de SQL SERVER</t>
+  </si>
+  <si>
+    <t>se finalizo el diseño de INICIO DE SESION por ende se  cambio de todo el codigo para el inicio de sesion, agregando nuevos datos  a mostrar.</t>
+  </si>
+  <si>
+    <t>Revision de los formulario auxiliares para el registro de empleado(se corrigio tanto la vista como el codigo fuente)</t>
+  </si>
+  <si>
+    <t>En empleado se implemento codigo para validar (codigo dni-independiente para otras empresas)</t>
   </si>
 </sst>
 </file>
@@ -2651,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,17 +3331,27 @@
       </c>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
+    <row r="35" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>195</v>
+      </c>
       <c r="C35" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+        <v>196</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>194</v>
+      </c>
       <c r="G35" s="52"/>
-      <c r="H35" t="s">
+      <c r="H35" s="9" t="s">
         <v>15</v>
       </c>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A5614E-1124-4DCC-A702-5DE385E68797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A74F45-6476-4F27-AA11-B4245DC98664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="195">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -927,11 +927,23 @@
   <si>
     <t>Modificacion a empleado se agrego Jornada laboral(part-time y full-time), en C# y SQL, se creo procedimiento ANULAR empleado con validacion(en SQL Y c#).</t>
   </si>
+  <si>
+    <t xml:space="preserve">Validaciones con error provider en los formularios cargo, empleado, usuario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de formularios Empleado, Usuario, planilla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimiento almacenado de tipo planilla y creacion del formulario para su mantenimiento. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1130,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1272,6 +1284,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,25 +1325,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1363,25 +1379,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1533,8 +1549,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A9:H35" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H37" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A9:H37" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
@@ -2649,10 +2665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,7 +3285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43">
         <v>44158</v>
       </c>
@@ -3291,19 +3307,61 @@
       <c r="G34" s="43">
         <v>44164</v>
       </c>
-      <c r="H34" s="44"/>
-    </row>
-    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="54" t="s">
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>44158</v>
+      </c>
+      <c r="B36" s="43">
+        <v>44159</v>
+      </c>
+      <c r="C36" s="43">
+        <v>44160</v>
+      </c>
+      <c r="D36" s="43">
+        <v>44161</v>
+      </c>
+      <c r="E36" s="43">
+        <v>44162</v>
+      </c>
+      <c r="F36" s="43">
+        <v>44163</v>
+      </c>
+      <c r="G36" s="43">
+        <v>44164</v>
+      </c>
+      <c r="H36" s="44"/>
+    </row>
+    <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" t="s">
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" t="s">
         <v>15</v>
       </c>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F12CE8-8408-4221-B77D-FB171CF9E2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0F2401-9BB8-4560-9F4C-EBDFCA3DC7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
     <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
     <sheet name="INFORME OCTUBRE Y NOVIEMBRE" sheetId="7" r:id="rId3"/>
-    <sheet name="PENDIENTES" sheetId="2" r:id="rId4"/>
-    <sheet name="PATRON" sheetId="3" r:id="rId5"/>
-    <sheet name="Error" sheetId="6" r:id="rId6"/>
+    <sheet name="INFORME DICIEMBRE" sheetId="8" r:id="rId4"/>
+    <sheet name="PENDIENTES" sheetId="2" r:id="rId5"/>
+    <sheet name="PATRON" sheetId="3" r:id="rId6"/>
+    <sheet name="Error" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'INFORME AGOSTO'!$A$1:$H$27</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="201">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -964,6 +965,18 @@
   </si>
   <si>
     <t>En empleado se implemento codigo para validar (codigo dni-independiente para otras empresas)</t>
+  </si>
+  <si>
+    <t>Formulario Tipo Planilla: Procedimiento almacenado y diseño.</t>
+  </si>
+  <si>
+    <t>Tabla Tipo Planilla y procedimientos almacenados para su mantenimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementando tres capas para la relacion con la base de datos y la tabla tipo planilla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de formularios acordes a un mismo formato y tamaño. </t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,8 +1159,14 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1164,11 +1183,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1309,6 +1339,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,25 +1390,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1401,25 +1444,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2689,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3365,6 +3408,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D619E7D-8880-444F-8BC1-EE97C245D73C}">
+  <dimension ref="B2:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="43">
+        <v>44195</v>
+      </c>
+      <c r="C10" s="43">
+        <v>43831</v>
+      </c>
+      <c r="D10" s="43">
+        <v>43832</v>
+      </c>
+      <c r="E10" s="43">
+        <v>43833</v>
+      </c>
+      <c r="F10" s="43">
+        <v>43834</v>
+      </c>
+      <c r="G10" s="43">
+        <v>43835</v>
+      </c>
+      <c r="H10" s="43">
+        <v>43836</v>
+      </c>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="2:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
@@ -3722,7 +3889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3738,7 +3905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8302B75-CA61-4823-A356-B6EB99D8917F}">
   <dimension ref="B2:B7"/>
   <sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F12CE8-8408-4221-B77D-FB171CF9E2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76784593-8E5F-4DD2-9666-37309AAB1B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME AGOSTO" sheetId="4" r:id="rId1"/>
     <sheet name="INFORME SEPTIEMBRE" sheetId="5" r:id="rId2"/>
     <sheet name="INFORME OCTUBRE Y NOVIEMBRE" sheetId="7" r:id="rId3"/>
-    <sheet name="PENDIENTES" sheetId="2" r:id="rId4"/>
-    <sheet name="PATRON" sheetId="3" r:id="rId5"/>
-    <sheet name="Error" sheetId="6" r:id="rId6"/>
+    <sheet name="INFORME DICIEMBRE" sheetId="8" r:id="rId4"/>
+    <sheet name="PENDIENTES" sheetId="2" r:id="rId5"/>
+    <sheet name="PATRON" sheetId="3" r:id="rId6"/>
+    <sheet name="Error" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'INFORME AGOSTO'!$A$1:$H$27</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="203">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -965,12 +966,50 @@
   <si>
     <t>En empleado se implemento codigo para validar (codigo dni-independiente para otras empresas)</t>
   </si>
+  <si>
+    <t>Codificacion Inicio  de sesion y union con formulario principal.</t>
+  </si>
+  <si>
+    <t>Al calcular los aportes de los empleados, se tuvo que modificar el mantenimiento de comisiones y primas AFP</t>
+  </si>
+  <si>
+    <t>Mantenimiento comisiones y primas AFP (Modificaciones)y agregamos un campo para La O.N.P (si algun momento se llega a cambiar el porcentaje)</t>
+  </si>
+  <si>
+    <r>
+      <t>formulario calculo (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>visual borro todos los campos que eran para el calculo - por un error en las variables según parece por, solo borro el diseño</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) y se creo de nuevo todo el proceso y union con todos los eventos para que calcule </t>
+    </r>
+  </si>
+  <si>
+    <t>Procedimiento almacenado para recuperar Registro de la Base de datos para mostrar al seleccionar calculo de mes - me muestra todos los empleados validados por su fecha de ingreso mayor y menor que.</t>
+  </si>
+  <si>
+    <t>Procedimiento almacenado mostrar todos los campos que son  para el calculo,  con validacion para los cesados - se valido con fecha de fin y Cesado (y se tuvo que modificar el codigo en empleado la fecha de fin para que muestre si tiene o no tiene la fecha fin.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,6 +1170,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1314,7 +1359,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1537,7 +1636,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A10:H27" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A10:H27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LUNES"/>
@@ -1554,16 +1653,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{029EC875-0605-4C50-8F29-0FD4916AB6A8}" name="Tabla4" displayName="Tabla4" ref="A9:H21" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A9:H21" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4643AB56-0BAB-48FC-8306-468D1062DE86}" name="LUNES" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{E953D8AE-BD07-4A44-B608-F783C68D65C4}" name="MARTES" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9FEC44C2-4D5F-4D3D-9CEE-CDD42DED5F8D}" name="MIÉRCOLES" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{48499542-CA4A-4882-A6B4-951C92C7BB31}" name="JUEVES" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{747A39BA-EC58-4CBC-929B-AC087F8AC0BB}" name="VIERNES" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{46E2C91C-9A07-4E58-BF2E-EFE1A87E5BFE}" name="SÁBADO" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{B8BDDE1B-47E6-4651-A198-53F748E08E3F}" name="DOMINGO" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{C51D3758-B97A-4E03-B404-E72F7D39CC77}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1571,16 +1670,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64C7FF56-F474-4584-B1AB-2005F0AD6B48}" name="Tabla43" displayName="Tabla43" ref="A9:H35" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A9:H35" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{8CC4D981-27D4-4E4F-9AC3-11CB7C096EEF}" name="MIÉRCOLES" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{BA7535F5-C99F-4699-9028-08DC89F6C4B9}" name="JUEVES" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{037149CF-875B-4884-80F5-8D6756F292C9}" name="VIERNES" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E1786BD5-7D4B-4CC1-9CF9-55A6890ED160}" name="SÁBADO" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{415CB197-C16B-4996-912D-D31D3D9A21E0}" name="DOMINGO" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{DE1C6334-763D-4EFD-820F-8338CCB0D61A}" name="LUNES" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CFA4FF71-F041-49B1-B161-9FF49BEC461C}" name="MARTES" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{8CC4D981-27D4-4E4F-9AC3-11CB7C096EEF}" name="MIÉRCOLES" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{BA7535F5-C99F-4699-9028-08DC89F6C4B9}" name="JUEVES" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{037149CF-875B-4884-80F5-8D6756F292C9}" name="VIERNES" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E1786BD5-7D4B-4CC1-9CF9-55A6890ED160}" name="SÁBADO" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{415CB197-C16B-4996-912D-D31D3D9A21E0}" name="DOMINGO" dataDxfId="13"/>
     <tableColumn id="8" xr3:uid="{83EDBEE9-3894-4F87-A0C6-238778E933C3}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1588,12 +1687,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3D51DB60-25A5-407F-B147-9C2EE77621F5}" name="Tabla436" displayName="Tabla436" ref="A9:H35" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A9:H35" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C1FCBF98-B90B-4B10-92F2-32303F700D04}" name="LUNES" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{487E9CE8-3079-45B6-BB6D-6A0528C1CE51}" name="MARTES" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7B5A827F-93B7-4900-BCF6-3E2D0AD6DE05}" name="MIÉRCOLES" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FFDC11E5-E9EC-40C7-AB31-8DDAEFEAA0C0}" name="JUEVES" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9AC2D87C-8CB5-4273-9BB4-F932276A9207}" name="VIERNES" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{2E4F3F79-4B55-43E7-9D8B-DB0BF1261612}" name="SÁBADO" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{89A7607E-D921-44FF-B121-F872E4651F94}" name="DOMINGO" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{6666C44C-F63E-4E0D-B0C8-8D99A521C087}" name="DEVELOPER"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D31" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2689,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF054BD2-E95A-4F49-B047-EB049B2379A9}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3365,6 +3481,371 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FE0B04-3745-4B02-AFD0-01AD4F0B1C78}">
+  <dimension ref="A2:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>44165</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44166</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44167</v>
+      </c>
+      <c r="D10" s="37">
+        <v>44168</v>
+      </c>
+      <c r="E10" s="37">
+        <v>44169</v>
+      </c>
+      <c r="F10" s="37">
+        <v>44170</v>
+      </c>
+      <c r="G10" s="37">
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="213.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="51"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
@@ -3722,7 +4203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3738,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8302B75-CA61-4823-A356-B6EB99D8917F}">
   <dimension ref="B2:B7"/>
   <sheetViews>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76784593-8E5F-4DD2-9666-37309AAB1B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8B941-6295-45D0-A7A6-650B89A4D4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="206">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -1003,6 +1003,15 @@
   </si>
   <si>
     <t>Procedimiento almacenado mostrar todos los campos que son  para el calculo,  con validacion para los cesados - se valido con fecha de fin y Cesado (y se tuvo que modificar el codigo en empleado la fecha de fin para que muestre si tiene o no tiene la fecha fin.</t>
+  </si>
+  <si>
+    <t>Relacionar formularios en C# para recuperar datos de SQLSERVER</t>
+  </si>
+  <si>
+    <t>Modificaciones en Diseño para presentar</t>
+  </si>
+  <si>
+    <t>recuperar tipo de documento en susdidios( nos muestra el  documento y su tipo)</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1354,66 +1363,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1444,6 +1405,60 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
@@ -1687,16 +1702,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3D51DB60-25A5-407F-B147-9C2EE77621F5}" name="Tabla436" displayName="Tabla436" ref="A9:H35" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3D51DB60-25A5-407F-B147-9C2EE77621F5}" name="Tabla436" displayName="Tabla436" ref="A9:H35" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A9:H35" xr:uid="{6983508E-6B95-42B3-BE2C-66A2E36269BB}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C1FCBF98-B90B-4B10-92F2-32303F700D04}" name="LUNES" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{487E9CE8-3079-45B6-BB6D-6A0528C1CE51}" name="MARTES" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7B5A827F-93B7-4900-BCF6-3E2D0AD6DE05}" name="MIÉRCOLES" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{FFDC11E5-E9EC-40C7-AB31-8DDAEFEAA0C0}" name="JUEVES" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9AC2D87C-8CB5-4273-9BB4-F932276A9207}" name="VIERNES" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{2E4F3F79-4B55-43E7-9D8B-DB0BF1261612}" name="SÁBADO" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{89A7607E-D921-44FF-B121-F872E4651F94}" name="DOMINGO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C1FCBF98-B90B-4B10-92F2-32303F700D04}" name="LUNES" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{487E9CE8-3079-45B6-BB6D-6A0528C1CE51}" name="MARTES" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{7B5A827F-93B7-4900-BCF6-3E2D0AD6DE05}" name="MIÉRCOLES" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FFDC11E5-E9EC-40C7-AB31-8DDAEFEAA0C0}" name="JUEVES" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9AC2D87C-8CB5-4273-9BB4-F932276A9207}" name="VIERNES" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2E4F3F79-4B55-43E7-9D8B-DB0BF1261612}" name="SÁBADO" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{89A7607E-D921-44FF-B121-F872E4651F94}" name="DOMINGO" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{6666C44C-F63E-4E0D-B0C8-8D99A521C087}" name="DEVELOPER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1707,9 +1722,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:D31" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="OBSERVACION"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PENDIENTE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="CONCLUIDO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ENCARGADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3484,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FE0B04-3745-4B02-AFD0-01AD4F0B1C78}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,21 +3613,47 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="A12" s="37">
+        <v>44172</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44173</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44174</v>
+      </c>
+      <c r="D12" s="37">
+        <v>44175</v>
+      </c>
+      <c r="E12" s="37">
+        <v>44176</v>
+      </c>
+      <c r="F12" s="37">
+        <v>44177</v>
+      </c>
+      <c r="G12" s="37">
+        <v>44178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="G13" s="52"/>
       <c r="H13" s="17"/>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8B941-6295-45D0-A7A6-650B89A4D4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C7EE8-8A18-40CB-AC76-6477D28CAAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="212">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -1013,12 +1013,52 @@
   <si>
     <t>recuperar tipo de documento en susdidios( nos muestra el  documento y su tipo)</t>
   </si>
+  <si>
+    <t>diseño y modificaciones en panel principal</t>
+  </si>
+  <si>
+    <t>modificaciones en empleado, validacion para el usuario</t>
+  </si>
+  <si>
+    <t>botones del formulario(cerrar, maximizar y minimizar) cambios y adaptacion</t>
+  </si>
+  <si>
+    <t>Adaptar formulario a principal, Modificaciones en proceso de editar y eliminar en formulario que depende del empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemento tipo de planilla y procesos, continuacion de  adaptar los botones de los demas </t>
+  </si>
+  <si>
+    <r>
+      <t>Descuentos en Calculo, validacion de Essalud(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pendiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) para el calculo. Los PART - TIME (seran otro color de letra para distinguir)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,6 +1226,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1222,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1369,6 +1416,9 @@
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3499,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FE0B04-3745-4B02-AFD0-01AD4F0B1C78}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,22 +3708,48 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="A14" s="37">
+        <v>44179</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44180</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44181</v>
+      </c>
+      <c r="D14" s="37">
+        <v>44182</v>
+      </c>
+      <c r="E14" s="37">
+        <v>44183</v>
+      </c>
+      <c r="F14" s="37">
+        <v>44184</v>
+      </c>
+      <c r="G14" s="37">
+        <v>44185</v>
+      </c>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>211</v>
+      </c>
       <c r="G15" s="54"/>
       <c r="H15" s="9"/>
     </row>

--- a/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
+++ b/INFORME/INFORME PLANILLA CONTABLE 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\source\repos\PLANILLACONTABLE\INFORME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C7EE8-8A18-40CB-AC76-6477D28CAAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19806DC2-88D3-4B4B-8A91-CB044A38F7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
   <si>
     <t>INFORME DE  DESARROLLO DE SITEMA PLANILLA LCT.</t>
   </si>
@@ -1053,12 +1053,21 @@
       <t>) para el calculo. Los PART - TIME (seran otro color de letra para distinguir)</t>
     </r>
   </si>
+  <si>
+    <t>se organizo el menu principal, y se configuro el acceso por Roles de Usuario</t>
+  </si>
+  <si>
+    <t>Modificaciones en Formularios pendientes</t>
+  </si>
+  <si>
+    <t>Modificaciones en formulario(Banco)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,13 +1234,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3550,7 +3552,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,7 +3707,9 @@
         <v>205</v>
       </c>
       <c r="G13" s="52"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
@@ -3751,27 +3755,53 @@
         <v>211</v>
       </c>
       <c r="G15" s="54"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="A16" s="37">
+        <v>44186</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44187</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44188</v>
+      </c>
+      <c r="D16" s="37">
+        <v>44189</v>
+      </c>
+      <c r="E16" s="37">
+        <v>44190</v>
+      </c>
+      <c r="F16" s="37">
+        <v>44191</v>
+      </c>
+      <c r="G16" s="37">
+        <v>44192</v>
+      </c>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>214</v>
+      </c>
       <c r="F17" s="41"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="42"/>
+      <c r="H17" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
